--- a/Wide_2010-2014.xlsx
+++ b/Wide_2010-2014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>rgdpe</t>
   </si>
@@ -971,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S183"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1006,37 +1006,34 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1065,37 +1062,34 @@
         <v>80.81</v>
       </c>
       <c r="J2">
-        <v>0.03758299873787187</v>
+        <v>9788.448496822894</v>
       </c>
       <c r="K2">
-        <v>9788.448496822894</v>
+        <v>9.721753120422363</v>
       </c>
       <c r="L2">
-        <v>9.721753120422363</v>
+        <v>32.105892</v>
       </c>
       <c r="M2">
-        <v>32.105892</v>
+        <v>0.7053999874609922</v>
       </c>
       <c r="N2">
-        <v>0.7053999874609922</v>
+        <v>-0.6362778306007385</v>
       </c>
       <c r="O2">
-        <v>-0.6362778306007385</v>
+        <v>-0.2322479978203774</v>
       </c>
       <c r="P2">
-        <v>-0.2322479978203774</v>
+        <v>-0.007915578782558441</v>
       </c>
       <c r="Q2">
-        <v>-0.007915578782558441</v>
+        <v>-0.4477886438369751</v>
       </c>
       <c r="R2">
-        <v>-0.4477886438369751</v>
-      </c>
-      <c r="S2">
         <v>0.2186582505702973</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1124,37 +1118,34 @@
         <v>74.45</v>
       </c>
       <c r="J3">
-        <v>0.03211143409631145</v>
+        <v>13075.71914240405</v>
       </c>
       <c r="K3">
-        <v>13075.71914240405</v>
+        <v>4.632437705993652</v>
       </c>
       <c r="L3">
-        <v>4.632437705993652</v>
+        <v>32.808754</v>
       </c>
       <c r="M3">
-        <v>32.808754</v>
+        <v>0.6472864539569936</v>
       </c>
       <c r="N3">
-        <v>0.6472864539569936</v>
+        <v>-0.5292330682277679</v>
       </c>
       <c r="O3">
-        <v>-0.5292330682277679</v>
+        <v>-0.5176447987556457</v>
       </c>
       <c r="P3">
-        <v>-0.5176447987556457</v>
+        <v>-1.267575645446777</v>
       </c>
       <c r="Q3">
-        <v>-1.267575645446777</v>
+        <v>-0.7654871821403504</v>
       </c>
       <c r="R3">
-        <v>-0.7654871821403504</v>
-      </c>
-      <c r="S3">
         <v>-1.21728184223175</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1177,37 +1168,34 @@
         <v>0.1193227388284884</v>
       </c>
       <c r="J4">
-        <v>0.1193227388284884</v>
+        <v>7412.720971638349</v>
       </c>
       <c r="K4">
-        <v>7412.720971638349</v>
+        <v>2.997235774993896</v>
       </c>
       <c r="L4">
-        <v>2.997235774993896</v>
+        <v>20.61007</v>
       </c>
       <c r="M4">
-        <v>20.61007</v>
+        <v>0.8321507426458913</v>
       </c>
       <c r="N4">
-        <v>0.8321507426458913</v>
+        <v>-1.338438892364502</v>
       </c>
       <c r="O4">
-        <v>-1.338438892364502</v>
+        <v>-1.121584784984589</v>
       </c>
       <c r="P4">
-        <v>-1.121584784984589</v>
+        <v>-0.3418416440486908</v>
       </c>
       <c r="Q4">
-        <v>-0.3418416440486908</v>
+        <v>-1.237251305580139</v>
       </c>
       <c r="R4">
-        <v>-1.237251305580139</v>
-      </c>
-      <c r="S4">
         <v>-1.02923321723938</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1230,13 +1218,10 @@
         <v>-0.0115434300030185</v>
       </c>
       <c r="J5">
-        <v>-0.0115434300030185</v>
-      </c>
-      <c r="K5">
         <v>26581.48978289322</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1259,31 +1244,28 @@
         <v>-0.003356353497361453</v>
       </c>
       <c r="J6">
-        <v>-0.003356353497361453</v>
+        <v>20206.6645162764</v>
       </c>
       <c r="K6">
-        <v>20206.6645162764</v>
-      </c>
-      <c r="L6">
         <v>0</v>
       </c>
+      <c r="N6">
+        <v>1.151284444332123</v>
+      </c>
       <c r="O6">
-        <v>1.151284444332123</v>
+        <v>0.3774021446704864</v>
       </c>
       <c r="P6">
-        <v>0.3774021446704864</v>
+        <v>0.9563579559326172</v>
       </c>
       <c r="Q6">
-        <v>0.9563579559326172</v>
+        <v>0.7041700661182404</v>
       </c>
       <c r="R6">
-        <v>0.7041700661182404</v>
-      </c>
-      <c r="S6">
         <v>0.6048609972000122</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1312,37 +1294,34 @@
         <v>81.22</v>
       </c>
       <c r="J7">
-        <v>0.03661345503630591</v>
+        <v>19961.61150061416</v>
       </c>
       <c r="K7">
-        <v>19961.61150061416</v>
+        <v>6.98409366607666</v>
       </c>
       <c r="L7">
-        <v>6.98409366607666</v>
+        <v>32.392148</v>
       </c>
       <c r="M7">
-        <v>32.392148</v>
+        <v>0.4832438638089636</v>
       </c>
       <c r="N7">
-        <v>0.4832438638089636</v>
+        <v>-0.4289338231086731</v>
       </c>
       <c r="O7">
-        <v>-0.4289338231086731</v>
+        <v>-0.191621096432209</v>
       </c>
       <c r="P7">
-        <v>-0.191621096432209</v>
+        <v>0.0474857465364039</v>
       </c>
       <c r="Q7">
-        <v>0.0474857465364039</v>
+        <v>-0.6849588990211487</v>
       </c>
       <c r="R7">
-        <v>-0.6849588990211487</v>
-      </c>
-      <c r="S7">
         <v>-0.8890626907348633</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,37 +1344,34 @@
         <v>0.05661223595050422</v>
       </c>
       <c r="J8">
-        <v>0.05661223595050422</v>
+        <v>8024.265558728834</v>
       </c>
       <c r="K8">
-        <v>8024.265558728834</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>31.857992</v>
       </c>
       <c r="M8">
-        <v>31.857992</v>
+        <v>0.8187310647070269</v>
       </c>
       <c r="N8">
-        <v>0.8187310647070269</v>
+        <v>-0.5993844509124756</v>
       </c>
       <c r="O8">
-        <v>-0.5993844509124756</v>
+        <v>-0.09682264626026153</v>
       </c>
       <c r="P8">
-        <v>-0.09682264626026153</v>
+        <v>-0.004793867468833923</v>
       </c>
       <c r="Q8">
-        <v>-0.004793867468833923</v>
+        <v>-0.4115274906158447</v>
       </c>
       <c r="R8">
-        <v>-0.4115274906158447</v>
-      </c>
-      <c r="S8">
         <v>0.2796114951372147</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1418,13 +1394,10 @@
         <v>-0.02619358622568251</v>
       </c>
       <c r="J9">
-        <v>-0.02619358622568251</v>
-      </c>
-      <c r="K9">
         <v>37708.55314073645</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1453,37 +1426,34 @@
         <v>100</v>
       </c>
       <c r="J10">
-        <v>0.007038594346570304</v>
+        <v>43266.05789946315</v>
       </c>
       <c r="K10">
-        <v>43266.05789946315</v>
+        <v>7.165209770202637</v>
       </c>
       <c r="L10">
-        <v>7.165209770202637</v>
+        <v>84.28831199999999</v>
       </c>
       <c r="M10">
-        <v>84.28831199999999</v>
+        <v>0.05351360831339587</v>
       </c>
       <c r="N10">
-        <v>0.05351360831339587</v>
+        <v>1.940127396583557</v>
       </c>
       <c r="O10">
-        <v>1.940127396583557</v>
+        <v>1.666626048088074</v>
       </c>
       <c r="P10">
-        <v>1.666626048088074</v>
+        <v>0.9771664261817932</v>
       </c>
       <c r="Q10">
-        <v>0.9771664261817932</v>
+        <v>1.795247173309326</v>
       </c>
       <c r="R10">
-        <v>1.795247173309326</v>
-      </c>
-      <c r="S10">
         <v>1.801613473892212</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1512,37 +1482,34 @@
         <v>96.38</v>
       </c>
       <c r="J11">
-        <v>0.02695998019614083</v>
+        <v>45680.6841013871</v>
       </c>
       <c r="K11">
-        <v>45680.6841013871</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>73.373806</v>
       </c>
       <c r="M11">
-        <v>73.373806</v>
+        <v>0.109950978888282</v>
       </c>
       <c r="N11">
-        <v>0.109950978888282</v>
+        <v>1.486523652076721</v>
       </c>
       <c r="O11">
-        <v>1.486523652076721</v>
+        <v>1.639291882514954</v>
       </c>
       <c r="P11">
-        <v>1.639291882514954</v>
+        <v>1.264307546615601</v>
       </c>
       <c r="Q11">
-        <v>1.264307546615601</v>
+        <v>1.85277590751648</v>
       </c>
       <c r="R11">
-        <v>1.85277590751648</v>
-      </c>
-      <c r="S11">
         <v>1.467609643936157</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1565,37 +1532,34 @@
         <v>0.07534998641006718</v>
       </c>
       <c r="J12">
-        <v>0.07534998641006718</v>
+        <v>15917.47207793868</v>
       </c>
       <c r="K12">
-        <v>15917.47207793868</v>
+        <v>8.358335494995117</v>
       </c>
       <c r="L12">
-        <v>8.358335494995117</v>
+        <v>26.35047</v>
       </c>
       <c r="M12">
-        <v>26.35047</v>
+        <v>0.9418611790554982</v>
       </c>
       <c r="N12">
-        <v>0.9418611790554982</v>
+        <v>-1.107015669345856</v>
       </c>
       <c r="O12">
-        <v>-1.107015669345856</v>
+        <v>-0.6387153625488281</v>
       </c>
       <c r="P12">
-        <v>-0.6387153625488281</v>
+        <v>-0.4918408304452896</v>
       </c>
       <c r="Q12">
-        <v>-0.4918408304452896</v>
+        <v>-0.8034732937812805</v>
       </c>
       <c r="R12">
-        <v>-0.8034732937812805</v>
-      </c>
-      <c r="S12">
         <v>-0.3770774006843567</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1618,34 +1582,31 @@
         <v>-0.008925832578798355</v>
       </c>
       <c r="J13">
-        <v>-0.008925832578798355</v>
+        <v>23819.69546728694</v>
       </c>
       <c r="K13">
-        <v>23819.69546728694</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
         <v>71.473635</v>
       </c>
+      <c r="N13">
+        <v>1.337518739700317</v>
+      </c>
       <c r="O13">
-        <v>1.337518739700317</v>
+        <v>0.9293847441673279</v>
       </c>
       <c r="P13">
-        <v>0.9293847441673279</v>
+        <v>1.07452689409256</v>
       </c>
       <c r="Q13">
-        <v>1.07452689409256</v>
+        <v>0.6525460362434388</v>
       </c>
       <c r="R13">
-        <v>0.6525460362434388</v>
-      </c>
-      <c r="S13">
         <v>0.3671739608049392</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1668,34 +1629,31 @@
         <v>0.02590628910003228</v>
       </c>
       <c r="J14">
-        <v>0.02590628910003228</v>
+        <v>41115.78677276741</v>
       </c>
       <c r="K14">
-        <v>41115.78677276741</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
         <v>49.619758</v>
       </c>
+      <c r="N14">
+        <v>0.2972595036029816</v>
+      </c>
       <c r="O14">
-        <v>0.2972595036029816</v>
+        <v>0.5362381935119629</v>
       </c>
       <c r="P14">
-        <v>0.5362381935119629</v>
+        <v>-0.9634331703186035</v>
       </c>
       <c r="Q14">
-        <v>-0.9634331703186035</v>
+        <v>0.3581897139549255</v>
       </c>
       <c r="R14">
-        <v>0.3581897139549255</v>
-      </c>
-      <c r="S14">
         <v>0.6880393028259277</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1724,37 +1682,34 @@
         <v>48.19</v>
       </c>
       <c r="J15">
-        <v>0.06795125743566791</v>
+        <v>2654.153272598043</v>
       </c>
       <c r="K15">
-        <v>2654.153272598043</v>
+        <v>4.774359226226807</v>
       </c>
       <c r="L15">
-        <v>4.774359226226807</v>
+        <v>25.713824</v>
       </c>
       <c r="M15">
-        <v>25.713824</v>
+        <v>0.8510692106129438</v>
       </c>
       <c r="N15">
-        <v>0.8510692106129438</v>
+        <v>-0.9536573171615601</v>
       </c>
       <c r="O15">
-        <v>-0.9536573171615601</v>
+        <v>-0.7709176063537597</v>
       </c>
       <c r="P15">
-        <v>-0.7709176063537597</v>
+        <v>-1.346607482433319</v>
       </c>
       <c r="Q15">
-        <v>-1.346607482433319</v>
+        <v>-0.8218302488327026</v>
       </c>
       <c r="R15">
-        <v>-0.8218302488327026</v>
-      </c>
-      <c r="S15">
         <v>-0.892474639415741</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1783,37 +1738,34 @@
         <v>100</v>
       </c>
       <c r="J16">
-        <v>-0.05551849757235701</v>
+        <v>15296.75949586519</v>
       </c>
       <c r="K16">
-        <v>15296.75949586519</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>76.14780399999999</v>
       </c>
       <c r="M16">
-        <v>76.14780399999999</v>
+        <v>0.101218834569963</v>
       </c>
       <c r="N16">
-        <v>0.101218834569963</v>
+        <v>1.524368333816528</v>
       </c>
       <c r="O16">
-        <v>1.524368333816528</v>
+        <v>1.381356835365295</v>
       </c>
       <c r="P16">
-        <v>1.381356835365295</v>
+        <v>1.207516288757324</v>
       </c>
       <c r="Q16">
-        <v>1.207516288757324</v>
+        <v>1.064635515213013</v>
       </c>
       <c r="R16">
-        <v>1.064635515213013</v>
-      </c>
-      <c r="S16">
         <v>0.4807776391506195</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1836,37 +1788,34 @@
         <v>0.07688826766186914</v>
       </c>
       <c r="J17">
-        <v>0.07688826766186914</v>
+        <v>18412.8141369594</v>
       </c>
       <c r="K17">
-        <v>18412.8141369594</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>28.036646</v>
       </c>
       <c r="M17">
-        <v>28.036646</v>
+        <v>0.473041581777754</v>
       </c>
       <c r="N17">
-        <v>0.473041581777754</v>
+        <v>-0.5334405124187469</v>
       </c>
       <c r="O17">
-        <v>-0.5334405124187469</v>
+        <v>-0.8953171789646148</v>
       </c>
       <c r="P17">
-        <v>-0.8953171789646148</v>
+        <v>0.01431948654353619</v>
       </c>
       <c r="Q17">
-        <v>0.01431948654353619</v>
+        <v>-0.9710388422012329</v>
       </c>
       <c r="R17">
-        <v>-0.9710388422012329</v>
-      </c>
-      <c r="S17">
         <v>-1.090992069244385</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1895,37 +1844,34 @@
         <v>96.89</v>
       </c>
       <c r="J18">
-        <v>0.02355443412665799</v>
+        <v>42532.93032093921</v>
       </c>
       <c r="K18">
-        <v>42532.93032093921</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>74.37486199999999</v>
       </c>
       <c r="M18">
-        <v>74.37486199999999</v>
+        <v>0.04352023988414885</v>
       </c>
       <c r="N18">
-        <v>0.04352023988414885</v>
+        <v>1.591562628746033</v>
       </c>
       <c r="O18">
-        <v>1.591562628746033</v>
+        <v>1.564558291435242</v>
       </c>
       <c r="P18">
-        <v>1.564558291435242</v>
+        <v>0.8660266995429993</v>
       </c>
       <c r="Q18">
-        <v>0.8660266995429993</v>
+        <v>1.440111351013184</v>
       </c>
       <c r="R18">
-        <v>1.440111351013184</v>
-      </c>
-      <c r="S18">
         <v>1.240889406204224</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1954,31 +1900,28 @@
         <v>76.34999999999999</v>
       </c>
       <c r="J19">
-        <v>0.026914918813492</v>
+        <v>7919.057514729796</v>
       </c>
       <c r="K19">
-        <v>7919.057514729796</v>
-      </c>
-      <c r="L19">
         <v>0</v>
       </c>
+      <c r="N19">
+        <v>-0.1738341405987739</v>
+      </c>
       <c r="O19">
-        <v>-0.1738341405987739</v>
+        <v>-0.4244338989257813</v>
       </c>
       <c r="P19">
-        <v>-0.4244338989257813</v>
+        <v>0.1254732996225357</v>
       </c>
       <c r="Q19">
-        <v>0.1254732996225357</v>
+        <v>-0.4989077270030975</v>
       </c>
       <c r="R19">
-        <v>-0.4989077270030975</v>
-      </c>
-      <c r="S19">
         <v>-0.4756797552108765</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2007,37 +1950,34 @@
         <v>36.76</v>
       </c>
       <c r="J20">
-        <v>0.01648718072143831</v>
+        <v>1790.587797111585</v>
       </c>
       <c r="K20">
-        <v>1790.587797111585</v>
+        <v>6.898038864135742</v>
       </c>
       <c r="L20">
-        <v>6.898038864135742</v>
+        <v>33.7397</v>
       </c>
       <c r="M20">
-        <v>33.7397</v>
+        <v>0.5218599469805865</v>
       </c>
       <c r="N20">
-        <v>0.5218599469805865</v>
+        <v>-0.7042111277580261</v>
       </c>
       <c r="O20">
-        <v>-0.7042111277580261</v>
+        <v>-0.5204261779785156</v>
       </c>
       <c r="P20">
-        <v>-0.5204261779785156</v>
+        <v>0.25446264334023</v>
       </c>
       <c r="Q20">
-        <v>0.25446264334023</v>
+        <v>-0.5957665622234345</v>
       </c>
       <c r="R20">
-        <v>-0.5957665622234345</v>
-      </c>
-      <c r="S20">
         <v>-0.4090239644050598</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -2060,13 +2000,10 @@
         <v>-0.00774307239094536</v>
       </c>
       <c r="J21">
-        <v>-0.00774307239094536</v>
-      </c>
-      <c r="K21">
         <v>59218.88143668203</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -2089,37 +2026,34 @@
         <v>0.01972082047592798</v>
       </c>
       <c r="J22">
-        <v>0.01972082047592798</v>
+        <v>6663.696274922484</v>
       </c>
       <c r="K22">
-        <v>6663.696274922484</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>61.084728</v>
       </c>
       <c r="M22">
-        <v>61.084728</v>
+        <v>0.1609572105047246</v>
       </c>
       <c r="N22">
-        <v>0.1609572105047246</v>
+        <v>0.9745935559272766</v>
       </c>
       <c r="O22">
-        <v>0.9745935559272766</v>
+        <v>0.4772972345352173</v>
       </c>
       <c r="P22">
-        <v>0.4772972345352173</v>
+        <v>0.8395379900932312</v>
       </c>
       <c r="Q22">
-        <v>0.8395379900932312</v>
+        <v>0.2526232689619065</v>
       </c>
       <c r="R22">
-        <v>0.2526232689619065</v>
-      </c>
-      <c r="S22">
         <v>-1.097509300708771</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2148,37 +2082,34 @@
         <v>73.38</v>
       </c>
       <c r="J23">
-        <v>0.05430971489943266</v>
+        <v>5724.236807379741</v>
       </c>
       <c r="K23">
-        <v>5724.236807379741</v>
+        <v>8.055698394775391</v>
       </c>
       <c r="L23">
-        <v>8.055698394775391</v>
+        <v>31.72646200000001</v>
       </c>
       <c r="M23">
-        <v>31.72646200000001</v>
+        <v>0.6438619766453993</v>
       </c>
       <c r="N23">
-        <v>0.6438619766453993</v>
+        <v>-0.5968859136104584</v>
       </c>
       <c r="O23">
-        <v>-0.5968859136104584</v>
+        <v>-0.4635560512542725</v>
       </c>
       <c r="P23">
-        <v>-0.4635560512542725</v>
+        <v>-0.3904614686965943</v>
       </c>
       <c r="Q23">
-        <v>-0.3904614686965943</v>
+        <v>-1.024099051952362</v>
       </c>
       <c r="R23">
-        <v>-1.024099051952362</v>
-      </c>
-      <c r="S23">
         <v>-0.8058316707611084</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2201,37 +2132,34 @@
         <v>0.02865591485184735</v>
       </c>
       <c r="J24">
-        <v>0.02865591485184735</v>
+        <v>9399.508642532324</v>
       </c>
       <c r="K24">
-        <v>9399.508642532324</v>
+        <v>9.534640312194824</v>
       </c>
       <c r="L24">
-        <v>9.534640312194824</v>
+        <v>37.414422</v>
       </c>
       <c r="M24">
-        <v>37.414422</v>
+        <v>0.6200134201956983</v>
       </c>
       <c r="N24">
-        <v>0.6200134201956983</v>
+        <v>-0.3018197178840637</v>
       </c>
       <c r="O24">
-        <v>-0.3018197178840637</v>
+        <v>-0.5654848277568817</v>
       </c>
       <c r="P24">
-        <v>-0.5654848277568817</v>
+        <v>-0.4951593868434429</v>
       </c>
       <c r="Q24">
-        <v>-0.4951593868434429</v>
+        <v>-0.2454929381608963</v>
       </c>
       <c r="R24">
-        <v>-0.2454929381608963</v>
-      </c>
-      <c r="S24">
         <v>-0.06575903370976448</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2254,37 +2182,34 @@
         <v>0.07311355974365916</v>
       </c>
       <c r="J25">
-        <v>0.07311355974365916</v>
+        <v>14138.53303718032</v>
       </c>
       <c r="K25">
-        <v>14138.53303718032</v>
+        <v>9.174399375915527</v>
       </c>
       <c r="L25">
-        <v>9.174399375915527</v>
+        <v>62.155764</v>
       </c>
       <c r="M25">
-        <v>62.155764</v>
+        <v>0.1662163141264972</v>
       </c>
       <c r="N25">
-        <v>0.1662163141264972</v>
+        <v>0.9468201518058776</v>
       </c>
       <c r="O25">
-        <v>0.9468201518058776</v>
+        <v>0.4313438415527344</v>
       </c>
       <c r="P25">
-        <v>0.4313438415527344</v>
+        <v>1.054778397083282</v>
       </c>
       <c r="Q25">
-        <v>1.054778397083282</v>
+        <v>0.6469099998474122</v>
       </c>
       <c r="R25">
-        <v>0.6469099998474122</v>
-      </c>
-      <c r="S25">
         <v>0.5453379571437835</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2313,37 +2238,34 @@
         <v>86.18000000000001</v>
       </c>
       <c r="J26">
-        <v>0.04964087836147664</v>
+        <v>14622.16848810497</v>
       </c>
       <c r="K26">
-        <v>14622.16848810497</v>
+        <v>5.720035552978516</v>
       </c>
       <c r="L26">
-        <v>5.720035552978516</v>
+        <v>40.54822</v>
       </c>
       <c r="M26">
-        <v>40.54822</v>
+        <v>0.4152093159996774</v>
       </c>
       <c r="N26">
-        <v>0.4152093159996774</v>
+        <v>-0.04965192675590515</v>
       </c>
       <c r="O26">
-        <v>-0.04965192675590515</v>
+        <v>-0.1024606913328171</v>
       </c>
       <c r="P26">
-        <v>-0.1024606913328171</v>
+        <v>-0.08039626013487577</v>
       </c>
       <c r="Q26">
-        <v>-0.08039626013487577</v>
+        <v>-0.02354919984936714</v>
       </c>
       <c r="R26">
-        <v>-0.02354919984936714</v>
-      </c>
-      <c r="S26">
         <v>0.08138171136379242</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -2366,13 +2288,10 @@
         <v>-0.03387926546897537</v>
       </c>
       <c r="J27">
-        <v>-0.03387926546897537</v>
-      </c>
-      <c r="K27">
         <v>28919.89997475516</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -2395,34 +2314,31 @@
         <v>0.02150958462976735</v>
       </c>
       <c r="J28">
-        <v>0.02150958462976735</v>
+        <v>72209.03659297967</v>
       </c>
       <c r="K28">
-        <v>72209.03659297967</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
         <v>55.5184925</v>
       </c>
+      <c r="N28">
+        <v>0.6896206617355347</v>
+      </c>
       <c r="O28">
-        <v>0.6896206617355347</v>
+        <v>0.9197100162506103</v>
       </c>
       <c r="P28">
-        <v>0.9197100162506103</v>
+        <v>1.121519458293915</v>
       </c>
       <c r="Q28">
-        <v>1.121519458293915</v>
+        <v>0.6978776812553406</v>
       </c>
       <c r="R28">
-        <v>0.6978776812553406</v>
-      </c>
-      <c r="S28">
         <v>1.101399803161621</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -2451,37 +2367,34 @@
         <v>88.52</v>
       </c>
       <c r="J29">
-        <v>0.03035681043124057</v>
+        <v>16327.93030653902</v>
       </c>
       <c r="K29">
-        <v>16327.93030653902</v>
+        <v>9.869037628173828</v>
       </c>
       <c r="L29">
-        <v>9.869037628173828</v>
+        <v>38.857932</v>
       </c>
       <c r="M29">
-        <v>38.857932</v>
+        <v>0.4360115837324056</v>
       </c>
       <c r="N29">
-        <v>0.4360115837324056</v>
+        <v>-0.2294881045818329</v>
       </c>
       <c r="O29">
-        <v>-0.2294881045818329</v>
+        <v>0.120578245818615</v>
       </c>
       <c r="P29">
-        <v>0.120578245818615</v>
+        <v>0.2581853285431862</v>
       </c>
       <c r="Q29">
-        <v>0.2581853285431862</v>
+        <v>-0.08292186930775643</v>
       </c>
       <c r="R29">
-        <v>-0.08292186930775643</v>
-      </c>
-      <c r="S29">
         <v>0.5727747917175293</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -2504,37 +2417,34 @@
         <v>0.04679365867264949</v>
       </c>
       <c r="J30">
-        <v>0.04679365867264949</v>
+        <v>1433.789702554424</v>
       </c>
       <c r="K30">
-        <v>1433.789702554424</v>
+        <v>7.680429935455322</v>
       </c>
       <c r="L30">
-        <v>7.680429935455322</v>
+        <v>35.092648</v>
       </c>
       <c r="M30">
-        <v>35.092648</v>
+        <v>0.4995901491974106</v>
       </c>
       <c r="N30">
-        <v>0.4995901491974106</v>
+        <v>-0.4370576322078705</v>
       </c>
       <c r="O30">
-        <v>-0.4370576322078705</v>
+        <v>-0.5983105778694153</v>
       </c>
       <c r="P30">
-        <v>-0.5983105778694153</v>
+        <v>-0.5593333095312119</v>
       </c>
       <c r="Q30">
-        <v>-0.5593333095312119</v>
+        <v>-0.4135878831148148</v>
       </c>
       <c r="R30">
-        <v>-0.4135878831148148</v>
-      </c>
-      <c r="S30">
         <v>-0.1877464473247528</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2557,37 +2467,34 @@
         <v>0.05256555503384837</v>
       </c>
       <c r="J31">
-        <v>0.05256555503384837</v>
+        <v>700.5336931220696</v>
       </c>
       <c r="K31">
-        <v>700.5336931220696</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>19.470472</v>
       </c>
       <c r="M31">
-        <v>19.470472</v>
+        <v>0.8676738538522952</v>
       </c>
       <c r="N31">
-        <v>0.8676738538522952</v>
+        <v>-1.294773769378662</v>
       </c>
       <c r="O31">
-        <v>-1.294773769378662</v>
+        <v>-1.135676288604736</v>
       </c>
       <c r="P31">
-        <v>-1.135676288604736</v>
+        <v>-1.454516530036926</v>
       </c>
       <c r="Q31">
-        <v>-1.454516530036926</v>
+        <v>-1.090729057788849</v>
       </c>
       <c r="R31">
-        <v>-1.090729057788849</v>
-      </c>
-      <c r="S31">
         <v>-0.9315676212310791</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2610,37 +2517,34 @@
         <v>0.02238358652422368</v>
       </c>
       <c r="J32">
-        <v>0.02238358652422368</v>
+        <v>6043.232165271023</v>
       </c>
       <c r="K32">
-        <v>6043.232165271023</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>56.249084</v>
       </c>
       <c r="M32">
-        <v>56.249084</v>
+        <v>0.19476316305731</v>
       </c>
       <c r="N32">
-        <v>0.19476316305731</v>
+        <v>0.8805360555648803</v>
       </c>
       <c r="O32">
-        <v>0.8805360555648803</v>
+        <v>0.08523701876401901</v>
       </c>
       <c r="P32">
-        <v>0.08523701876401901</v>
+        <v>0.7002886831760406</v>
       </c>
       <c r="Q32">
-        <v>0.7002886831760406</v>
+        <v>0.5360639333724976</v>
       </c>
       <c r="R32">
-        <v>0.5360639333724976</v>
-      </c>
-      <c r="S32">
         <v>-0.03743404448032379</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2669,37 +2573,34 @@
         <v>43.92</v>
       </c>
       <c r="J33">
-        <v>0.04589965356750851</v>
+        <v>2749.096406720949</v>
       </c>
       <c r="K33">
-        <v>2749.096406720949</v>
+        <v>8.475787162780762</v>
       </c>
       <c r="L33">
-        <v>8.475787162780762</v>
+        <v>21.021118</v>
       </c>
       <c r="M33">
-        <v>21.021118</v>
+        <v>0.8316630775611117</v>
       </c>
       <c r="N33">
-        <v>0.8316630775611117</v>
+        <v>-1.148413181304932</v>
       </c>
       <c r="O33">
-        <v>-1.148413181304932</v>
+        <v>-0.8433421492576599</v>
       </c>
       <c r="P33">
-        <v>-0.8433421492576599</v>
+        <v>-0.2044485297054052</v>
       </c>
       <c r="Q33">
-        <v>-0.2044485297054052</v>
+        <v>-1.020510017871857</v>
       </c>
       <c r="R33">
-        <v>-1.020510017871857</v>
-      </c>
-      <c r="S33">
         <v>-0.4323800146579743</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -2728,37 +2629,34 @@
         <v>32.57</v>
       </c>
       <c r="J34">
-        <v>0.02419125616013313</v>
+        <v>2543.50255342708</v>
       </c>
       <c r="K34">
-        <v>2543.50255342708</v>
+        <v>2.067070007324219</v>
       </c>
       <c r="L34">
-        <v>2.067070007324219</v>
+        <v>24.904494</v>
       </c>
       <c r="M34">
-        <v>24.904494</v>
+        <v>0.9207397273473008</v>
       </c>
       <c r="N34">
-        <v>0.9207397273473008</v>
+        <v>-1.167415022850037</v>
       </c>
       <c r="O34">
-        <v>-1.167415022850037</v>
+        <v>-0.8775846719741821</v>
       </c>
       <c r="P34">
-        <v>-0.8775846719741821</v>
+        <v>-0.7157333016395568</v>
       </c>
       <c r="Q34">
-        <v>-0.7157333016395568</v>
+        <v>-1.026928162574768</v>
       </c>
       <c r="R34">
-        <v>-1.026928162574768</v>
-      </c>
-      <c r="S34">
         <v>-0.8603770971298218</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2787,37 +2685,34 @@
         <v>97.8</v>
       </c>
       <c r="J35">
-        <v>0.01749106138932546</v>
+        <v>41462.46039669668</v>
       </c>
       <c r="K35">
-        <v>41462.46039669668</v>
+        <v>9.371253967285156</v>
       </c>
       <c r="L35">
-        <v>9.371253967285156</v>
+        <v>84.34491399999999</v>
       </c>
       <c r="M35">
-        <v>84.34491399999999</v>
+        <v>0.03420562417539478</v>
       </c>
       <c r="N35">
-        <v>0.03420562417539478</v>
+        <v>1.939615678787231</v>
       </c>
       <c r="O35">
-        <v>1.939615678787231</v>
+        <v>1.775307965278625</v>
       </c>
       <c r="P35">
-        <v>1.775307965278625</v>
+        <v>1.07268716096878</v>
       </c>
       <c r="Q35">
-        <v>1.07268716096878</v>
+        <v>1.790497207641601</v>
       </c>
       <c r="R35">
-        <v>1.790497207641601</v>
-      </c>
-      <c r="S35">
         <v>1.737168598175049</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2840,13 +2735,10 @@
         <v>-0.01772794065148069</v>
       </c>
       <c r="J36">
-        <v>-0.01772794065148069</v>
-      </c>
-      <c r="K36">
         <v>52806.49016907105</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -2869,37 +2761,34 @@
         <v>-0.0523753529846642</v>
       </c>
       <c r="J37">
-        <v>-0.0523753529846642</v>
+        <v>773.1043902538399</v>
       </c>
       <c r="K37">
-        <v>773.1043902538399</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>23.620848</v>
       </c>
       <c r="M37">
-        <v>23.620848</v>
+        <v>0.8938064507699199</v>
       </c>
       <c r="N37">
-        <v>0.8938064507699199</v>
+        <v>-1.024012422561646</v>
       </c>
       <c r="O37">
-        <v>-1.024012422561646</v>
+        <v>-1.515370678901672</v>
       </c>
       <c r="P37">
-        <v>-1.515370678901672</v>
+        <v>-2.103405475616455</v>
       </c>
       <c r="Q37">
-        <v>-2.103405475616455</v>
+        <v>-1.503421711921692</v>
       </c>
       <c r="R37">
-        <v>-1.503421711921692</v>
-      </c>
-      <c r="S37">
         <v>-1.19883337020874</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -2922,37 +2811,34 @@
         <v>0.07218551092266134</v>
       </c>
       <c r="J38">
-        <v>0.07218551092266134</v>
+        <v>1866.638185995538</v>
       </c>
       <c r="K38">
-        <v>1866.638185995538</v>
+        <v>5.520833492279053</v>
       </c>
       <c r="L38">
-        <v>5.520833492279053</v>
+        <v>19.480926</v>
       </c>
       <c r="M38">
-        <v>19.480926</v>
+        <v>0.9642109507857588</v>
       </c>
       <c r="N38">
-        <v>0.9642109507857588</v>
+        <v>-1.338110446929932</v>
       </c>
       <c r="O38">
-        <v>-1.338110446929932</v>
+        <v>-1.442072701454163</v>
       </c>
       <c r="P38">
-        <v>-1.442072701454163</v>
+        <v>-1.309077048301697</v>
       </c>
       <c r="Q38">
-        <v>-1.309077048301697</v>
+        <v>-1.392951369285583</v>
       </c>
       <c r="R38">
-        <v>-1.392951369285583</v>
-      </c>
-      <c r="S38">
         <v>-1.063355994224548</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2981,37 +2867,34 @@
         <v>83.41</v>
       </c>
       <c r="J39">
-        <v>0.0542861387451381</v>
+        <v>20721.37262505164</v>
       </c>
       <c r="K39">
-        <v>20721.37262505164</v>
+        <v>8.08104419708252</v>
       </c>
       <c r="L39">
-        <v>8.08104419708252</v>
+        <v>72.02771199999999</v>
       </c>
       <c r="M39">
-        <v>72.02771199999999</v>
+        <v>0.08757787054034237</v>
       </c>
       <c r="N39">
-        <v>0.08757787054034237</v>
+        <v>1.527605128288269</v>
       </c>
       <c r="O39">
-        <v>1.527605128288269</v>
+        <v>1.242010188102722</v>
       </c>
       <c r="P39">
-        <v>1.242010188102722</v>
+        <v>0.4549038887023926</v>
       </c>
       <c r="Q39">
-        <v>0.4549038887023926</v>
+        <v>1.378859496116638</v>
       </c>
       <c r="R39">
-        <v>1.378859496116638</v>
-      </c>
-      <c r="S39">
         <v>1.484391093254089</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -3040,37 +2923,34 @@
         <v>83</v>
       </c>
       <c r="J40">
-        <v>0.07449967830754396</v>
+        <v>10950.33958244905</v>
       </c>
       <c r="K40">
-        <v>10950.33958244905</v>
+        <v>6.782791614532471</v>
       </c>
       <c r="L40">
-        <v>6.782791614532471</v>
+        <v>37.271146</v>
       </c>
       <c r="M40">
-        <v>37.271146</v>
+        <v>0.5354559912612891</v>
       </c>
       <c r="N40">
-        <v>0.5354559912612891</v>
+        <v>-0.4405757129192353</v>
       </c>
       <c r="O40">
-        <v>-0.4405757129192353</v>
+        <v>0.1053625157102942</v>
       </c>
       <c r="P40">
-        <v>0.1053625157102942</v>
+        <v>-0.5728543043136597</v>
       </c>
       <c r="Q40">
-        <v>-0.5728543043136597</v>
+        <v>-0.4713419258594513</v>
       </c>
       <c r="R40">
-        <v>-0.4713419258594513</v>
-      </c>
-      <c r="S40">
         <v>-0.2534463256597519</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3093,13 +2973,10 @@
         <v>0.1396060926399329</v>
       </c>
       <c r="J41">
-        <v>0.1396060926399329</v>
-      </c>
-      <c r="K41">
         <v>113210.022329165</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3128,37 +3005,34 @@
         <v>93.88</v>
       </c>
       <c r="J42">
-        <v>0.05210725026435736</v>
+        <v>11787.03480054302</v>
       </c>
       <c r="K42">
-        <v>11787.03480054302</v>
+        <v>6.316894054412842</v>
       </c>
       <c r="L42">
-        <v>6.316894054412842</v>
+        <v>35.693348</v>
       </c>
       <c r="M42">
-        <v>35.693348</v>
+        <v>0.5414553973187262</v>
       </c>
       <c r="N42">
-        <v>0.5414553973187262</v>
+        <v>-0.3670935034751892</v>
       </c>
       <c r="O42">
-        <v>-0.3670935034751892</v>
+        <v>-0.005321076512336731</v>
       </c>
       <c r="P42">
-        <v>-0.005321076512336731</v>
+        <v>-1.326043343544006</v>
       </c>
       <c r="Q42">
-        <v>-1.326043343544006</v>
+        <v>-0.3232159852981568</v>
       </c>
       <c r="R42">
-        <v>-0.3232159852981568</v>
-      </c>
-      <c r="S42">
         <v>0.3825033605098724</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -3181,37 +3055,34 @@
         <v>0.002897923111532119</v>
       </c>
       <c r="J43">
-        <v>0.002897923111532119</v>
+        <v>1436.583638237767</v>
       </c>
       <c r="K43">
-        <v>1436.583638237767</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>25.421414</v>
       </c>
       <c r="M43">
-        <v>25.421414</v>
+        <v>0.7009555076671632</v>
       </c>
       <c r="N43">
-        <v>0.7009555076671632</v>
+        <v>-0.7466156601905822</v>
       </c>
       <c r="O43">
-        <v>-0.7466156601905822</v>
+        <v>-1.663567233085632</v>
       </c>
       <c r="P43">
-        <v>-1.663567233085632</v>
+        <v>-0.4023645550012588</v>
       </c>
       <c r="Q43">
-        <v>-0.4023645550012588</v>
+        <v>-0.9787206530570984</v>
       </c>
       <c r="R43">
-        <v>-0.9787206530570984</v>
-      </c>
-      <c r="S43">
         <v>-1.296372056007385</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3234,37 +3105,34 @@
         <v>0.09393336632059283</v>
       </c>
       <c r="J44">
-        <v>0.09393336632059283</v>
+        <v>4963.757423732701</v>
       </c>
       <c r="K44">
-        <v>4963.757423732701</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>22.708674</v>
       </c>
       <c r="M44">
-        <v>22.708674</v>
+        <v>0.8262478736868427</v>
       </c>
       <c r="N44">
-        <v>0.8262478736868427</v>
+        <v>-1.16195821762085</v>
       </c>
       <c r="O44">
-        <v>-1.16195821762085</v>
+        <v>-1.172639608383179</v>
       </c>
       <c r="P44">
-        <v>-1.172639608383179</v>
+        <v>-0.3989495575428009</v>
       </c>
       <c r="Q44">
-        <v>-0.3989495575428009</v>
+        <v>-1.157432293891907</v>
       </c>
       <c r="R44">
-        <v>-1.157432293891907</v>
-      </c>
-      <c r="S44">
         <v>-1.289207315444946</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -3293,37 +3161,34 @@
         <v>33.34</v>
       </c>
       <c r="J45">
-        <v>0.3140597165236917</v>
+        <v>896.0521321873277</v>
       </c>
       <c r="K45">
-        <v>896.0521321873277</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>21.042134</v>
       </c>
       <c r="M45">
-        <v>21.042134</v>
+        <v>0.9170040423857158</v>
       </c>
       <c r="N45">
-        <v>0.9170040423857158</v>
+        <v>-1.359378910064697</v>
       </c>
       <c r="O45">
-        <v>-1.359378910064697</v>
+        <v>-1.62179319858551</v>
       </c>
       <c r="P45">
-        <v>-1.62179319858551</v>
+        <v>-2.17114725112915</v>
       </c>
       <c r="Q45">
-        <v>-2.17114725112915</v>
+        <v>-1.584074020385742</v>
       </c>
       <c r="R45">
-        <v>-1.584074020385742</v>
-      </c>
-      <c r="S45">
         <v>-1.4387122631073</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,37 +3217,34 @@
         <v>90.06999999999999</v>
       </c>
       <c r="J46">
-        <v>0.03285314333685974</v>
+        <v>13393.1892432299</v>
       </c>
       <c r="K46">
-        <v>13393.1892432299</v>
+        <v>7.896981239318848</v>
       </c>
       <c r="L46">
-        <v>7.896981239318848</v>
+        <v>52.39619</v>
       </c>
       <c r="M46">
-        <v>52.39619</v>
+        <v>0.1665659225655388</v>
       </c>
       <c r="N46">
-        <v>0.1665659225655388</v>
+        <v>0.6713434338569642</v>
       </c>
       <c r="O46">
-        <v>0.6713434338569642</v>
+        <v>0.4050638437271118</v>
       </c>
       <c r="P46">
-        <v>0.4050638437271118</v>
+        <v>0.6187103867530823</v>
       </c>
       <c r="Q46">
-        <v>0.6187103867530823</v>
+        <v>0.521376758813858</v>
       </c>
       <c r="R46">
-        <v>0.521376758813858</v>
-      </c>
-      <c r="S46">
         <v>0.5169432997703552</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -3411,37 +3273,34 @@
         <v>29.68</v>
       </c>
       <c r="J47">
-        <v>0.05668891906481495</v>
+        <v>2981.61456401282</v>
       </c>
       <c r="K47">
-        <v>2981.61456401282</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>26.467408</v>
       </c>
       <c r="M47">
-        <v>26.467408</v>
+        <v>0.6151138550771481</v>
       </c>
       <c r="N47">
-        <v>0.6151138550771481</v>
+        <v>-0.8311764121055603</v>
       </c>
       <c r="O47">
-        <v>-0.8311764121055603</v>
+        <v>-1.059744012355804</v>
       </c>
       <c r="P47">
-        <v>-1.059744012355804</v>
+        <v>-1.267809557914734</v>
       </c>
       <c r="Q47">
-        <v>-1.267809557914734</v>
+        <v>-1.012428224086761</v>
       </c>
       <c r="R47">
-        <v>-1.012428224086761</v>
-      </c>
-      <c r="S47">
         <v>-0.7782719492912292</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -3464,37 +3323,34 @@
         <v>0.01129884529351799</v>
       </c>
       <c r="J48">
-        <v>0.01129884529351799</v>
+        <v>20976.24763878789</v>
       </c>
       <c r="K48">
-        <v>20976.24763878789</v>
+        <v>10</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>44.66849</v>
       </c>
       <c r="M48">
-        <v>44.66849</v>
+        <v>0.3344932207327522</v>
       </c>
       <c r="N48">
-        <v>0.3344932207327522</v>
+        <v>0.09521331172436476</v>
       </c>
       <c r="O48">
-        <v>0.09521331172436476</v>
+        <v>0.6568828463554383</v>
       </c>
       <c r="P48">
-        <v>0.6568828463554383</v>
+        <v>0.6201764941215515</v>
       </c>
       <c r="Q48">
-        <v>0.6201764941215515</v>
+        <v>0.2553563505411148</v>
       </c>
       <c r="R48">
-        <v>0.2553563505411148</v>
-      </c>
-      <c r="S48">
         <v>0.4856126248836518</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,13 +3373,10 @@
         <v>-0.0184026065203635</v>
       </c>
       <c r="J49">
-        <v>-0.0184026065203635</v>
-      </c>
-      <c r="K49">
         <v>26905.60790041531</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -3552,37 +3405,34 @@
         <v>90.09</v>
       </c>
       <c r="J50">
-        <v>-0.04137038675334057</v>
+        <v>31640.02619515982</v>
       </c>
       <c r="K50">
-        <v>31640.02619515982</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>63.531288</v>
       </c>
       <c r="M50">
-        <v>63.531288</v>
+        <v>0.2214846004864924</v>
       </c>
       <c r="N50">
-        <v>0.2214846004864924</v>
+        <v>1.082781827449799</v>
       </c>
       <c r="O50">
-        <v>1.082781827449799</v>
+        <v>1.398735642433167</v>
       </c>
       <c r="P50">
-        <v>1.398735642433167</v>
+        <v>0.5621569216251373</v>
       </c>
       <c r="Q50">
-        <v>0.5621569216251373</v>
+        <v>1.100497651100159</v>
       </c>
       <c r="R50">
-        <v>1.100497651100159</v>
-      </c>
-      <c r="S50">
         <v>1.161291587352753</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,37 +3461,34 @@
         <v>93.11</v>
       </c>
       <c r="J51">
-        <v>0.02696883398960413</v>
+        <v>29677.09474696192</v>
       </c>
       <c r="K51">
-        <v>29677.09474696192</v>
+        <v>10</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>47.536168</v>
       </c>
       <c r="M51">
-        <v>47.536168</v>
+        <v>0.2663860270080923</v>
       </c>
       <c r="N51">
-        <v>0.2663860270080923</v>
+        <v>0.3084588229656219</v>
       </c>
       <c r="O51">
-        <v>0.3084588229656219</v>
+        <v>0.9349064469337464</v>
       </c>
       <c r="P51">
-        <v>0.9349064469337464</v>
+        <v>1.04544529914856</v>
       </c>
       <c r="Q51">
-        <v>1.04544529914856</v>
+        <v>1.04404045343399</v>
       </c>
       <c r="R51">
-        <v>1.04404045343399</v>
-      </c>
-      <c r="S51">
         <v>1.130236005783081</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -3670,37 +3517,34 @@
         <v>100</v>
       </c>
       <c r="J52">
-        <v>0.02154222252394979</v>
+        <v>43602.87344773604</v>
       </c>
       <c r="K52">
-        <v>43602.87344773604</v>
+        <v>10</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>91.98416</v>
       </c>
       <c r="M52">
-        <v>91.98416</v>
+        <v>0.00970499030595335</v>
       </c>
       <c r="N52">
-        <v>0.00970499030595335</v>
+        <v>2.359332466125488</v>
       </c>
       <c r="O52">
-        <v>2.359332466125488</v>
+        <v>1.998779678344726</v>
       </c>
       <c r="P52">
-        <v>1.998779678344726</v>
+        <v>0.9934355854988098</v>
       </c>
       <c r="Q52">
-        <v>0.9934355854988098</v>
+        <v>1.938195514678955</v>
       </c>
       <c r="R52">
-        <v>1.938195514678955</v>
-      </c>
-      <c r="S52">
         <v>1.817082142829895</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -3723,37 +3567,34 @@
         <v>0.0378118605790783</v>
       </c>
       <c r="J53">
-        <v>0.0378118605790783</v>
+        <v>2798.985043271191</v>
       </c>
       <c r="K53">
-        <v>2798.985043271191</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>33.56214</v>
       </c>
       <c r="M53">
-        <v>33.56214</v>
+        <v>0.7272007414354482</v>
       </c>
       <c r="N53">
-        <v>0.7272007414354482</v>
+        <v>-0.4836641550064087</v>
       </c>
       <c r="O53">
-        <v>-0.4836641550064087</v>
+        <v>-0.9839568376541138</v>
       </c>
       <c r="P53">
-        <v>-0.9839568376541138</v>
+        <v>-0.05612321048974991</v>
       </c>
       <c r="Q53">
-        <v>-0.05612321048974991</v>
+        <v>-0.7947357296943665</v>
       </c>
       <c r="R53">
-        <v>-0.7947357296943665</v>
-      </c>
-      <c r="S53">
         <v>-0.5292593479156494</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -3776,34 +3617,31 @@
         <v>0.003076878357335255</v>
       </c>
       <c r="J54">
-        <v>0.003076878357335255</v>
+        <v>10177.22354083693</v>
       </c>
       <c r="K54">
-        <v>10177.22354083693</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
         <v>55.54911999999999</v>
       </c>
+      <c r="N54">
+        <v>0.6746471166610718</v>
+      </c>
       <c r="O54">
-        <v>0.6746471166610718</v>
+        <v>0.5398320078849792</v>
       </c>
       <c r="P54">
-        <v>0.5398320078849792</v>
+        <v>1.039979243278503</v>
       </c>
       <c r="Q54">
-        <v>1.039979243278503</v>
+        <v>0.6266530334949494</v>
       </c>
       <c r="R54">
-        <v>0.6266530334949494</v>
-      </c>
-      <c r="S54">
         <v>0.3392692387104034</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -3832,37 +3670,34 @@
         <v>69.68000000000001</v>
       </c>
       <c r="J55">
-        <v>0.036151337695369</v>
+        <v>11694.97332023706</v>
       </c>
       <c r="K55">
-        <v>11694.97332023706</v>
+        <v>7.805333137512207</v>
       </c>
       <c r="L55">
-        <v>7.805333137512207</v>
+        <v>29.779538</v>
       </c>
       <c r="M55">
-        <v>29.779538</v>
+        <v>0.808297341065197</v>
       </c>
       <c r="N55">
-        <v>0.808297341065197</v>
+        <v>-0.8412751078605651</v>
       </c>
       <c r="O55">
-        <v>-0.8412751078605651</v>
+        <v>-0.5294606149196625</v>
       </c>
       <c r="P55">
-        <v>-0.5294606149196625</v>
+        <v>0.1120588223042432</v>
       </c>
       <c r="Q55">
-        <v>0.1120588223042432</v>
+        <v>-0.64151411652565</v>
       </c>
       <c r="R55">
-        <v>-0.64151411652565</v>
-      </c>
-      <c r="S55">
         <v>-0.1119753323495388</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -3891,37 +3726,34 @@
         <v>81.70999999999999</v>
       </c>
       <c r="J56">
-        <v>0.05256340252081228</v>
+        <v>10134.12230074811</v>
       </c>
       <c r="K56">
-        <v>10134.12230074811</v>
+        <v>7.628601551055908</v>
       </c>
       <c r="L56">
-        <v>7.628601551055908</v>
+        <v>30.300432</v>
       </c>
       <c r="M56">
-        <v>30.300432</v>
+        <v>0.4884981086787265</v>
       </c>
       <c r="N56">
-        <v>0.4884981086787265</v>
+        <v>-0.6770992875099182</v>
       </c>
       <c r="O56">
-        <v>-0.6770992875099182</v>
+        <v>-0.5554950714111329</v>
       </c>
       <c r="P56">
-        <v>-0.5554950714111329</v>
+        <v>-0.4081456769257784</v>
       </c>
       <c r="Q56">
-        <v>-0.4081456769257784</v>
+        <v>-1.11415011882782</v>
       </c>
       <c r="R56">
-        <v>-1.11415011882782</v>
-      </c>
-      <c r="S56">
         <v>-1.031002962589264</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
@@ -3950,37 +3782,34 @@
         <v>70.20999999999999</v>
       </c>
       <c r="J57">
-        <v>0.04990927413873059</v>
+        <v>9662.271903353847</v>
       </c>
       <c r="K57">
-        <v>9662.271903353847</v>
+        <v>7.247360706329346</v>
       </c>
       <c r="L57">
-        <v>7.247360706329346</v>
+        <v>32.124374</v>
       </c>
       <c r="M57">
-        <v>32.124374</v>
+        <v>0.7552307465768549</v>
       </c>
       <c r="N57">
-        <v>0.7552307465768549</v>
+        <v>-0.636215615272522</v>
       </c>
       <c r="O57">
-        <v>-0.636215615272522</v>
+        <v>-0.6895069539546966</v>
       </c>
       <c r="P57">
-        <v>-0.6895069539546966</v>
+        <v>-1.408362507820129</v>
       </c>
       <c r="Q57">
-        <v>-1.408362507820129</v>
+        <v>-0.4799297273159027</v>
       </c>
       <c r="R57">
-        <v>-0.4799297273159027</v>
-      </c>
-      <c r="S57">
         <v>-0.4792662590742111</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -4009,37 +3838,34 @@
         <v>62.11</v>
       </c>
       <c r="J58">
-        <v>0.079816136254618</v>
+        <v>7364.301046361556</v>
       </c>
       <c r="K58">
-        <v>7364.301046361556</v>
+        <v>8.935173988342285</v>
       </c>
       <c r="L58">
-        <v>8.935173988342285</v>
+        <v>37.049784</v>
       </c>
       <c r="M58">
-        <v>37.049784</v>
+        <v>0.6261367979952251</v>
       </c>
       <c r="N58">
-        <v>0.6261367979952251</v>
+        <v>-0.3364678740501404</v>
       </c>
       <c r="O58">
-        <v>-0.3364678740501404</v>
+        <v>-0.07412318373098969</v>
       </c>
       <c r="P58">
-        <v>-0.07412318373098969</v>
+        <v>0.06923569738864899</v>
       </c>
       <c r="Q58">
-        <v>0.06923569738864899</v>
+        <v>-0.6657846570014954</v>
       </c>
       <c r="R58">
-        <v>-0.6657846570014954</v>
-      </c>
-      <c r="S58">
         <v>0.3583773732185364</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
@@ -4062,37 +3888,34 @@
         <v>0.176783481108393</v>
       </c>
       <c r="J59">
-        <v>0.176783481108393</v>
+        <v>37939.9905435606</v>
       </c>
       <c r="K59">
-        <v>37939.9905435606</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>19.2804425</v>
       </c>
       <c r="M59">
-        <v>19.2804425</v>
+        <v>0.794938597776133</v>
       </c>
       <c r="N59">
-        <v>0.794938597776133</v>
+        <v>-1.564502096176148</v>
       </c>
       <c r="O59">
-        <v>-1.564502096176148</v>
+        <v>-1.593058204650879</v>
       </c>
       <c r="P59">
-        <v>-1.593058204650879</v>
+        <v>0.07307682186365128</v>
       </c>
       <c r="Q59">
-        <v>0.07307682186365128</v>
+        <v>-1.332029271125794</v>
       </c>
       <c r="R59">
-        <v>-1.332029271125794</v>
-      </c>
-      <c r="S59">
         <v>-1.389252686500549</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -4115,37 +3938,34 @@
         <v>0.06390657840401789</v>
       </c>
       <c r="J60">
-        <v>0.06390657840401789</v>
+        <v>25815.29551869401</v>
       </c>
       <c r="K60">
-        <v>25815.29551869401</v>
+        <v>9.984261512756348</v>
       </c>
       <c r="L60">
-        <v>9.984261512756348</v>
+        <v>65.907222</v>
       </c>
       <c r="M60">
-        <v>65.907222</v>
+        <v>0.05425477272874221</v>
       </c>
       <c r="N60">
-        <v>0.05425477272874221</v>
+        <v>1.127184665203095</v>
       </c>
       <c r="O60">
-        <v>1.127184665203095</v>
+        <v>1.021686065196991</v>
       </c>
       <c r="P60">
-        <v>1.021686065196991</v>
+        <v>0.6874693632125854</v>
       </c>
       <c r="Q60">
-        <v>0.6874693632125854</v>
+        <v>1.214396858215332</v>
       </c>
       <c r="R60">
-        <v>1.214396858215332</v>
-      </c>
-      <c r="S60">
         <v>1.464528322219849</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -4168,37 +3988,34 @@
         <v>0.09606136335165419</v>
       </c>
       <c r="J61">
-        <v>0.09606136335165419</v>
+        <v>1147.979897683488</v>
       </c>
       <c r="K61">
-        <v>1147.979897683488</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>30.581824</v>
       </c>
       <c r="M61">
-        <v>30.581824</v>
+        <v>0.6129162129295906</v>
       </c>
       <c r="N61">
-        <v>0.6129162129295906</v>
+        <v>-0.578071516752243</v>
       </c>
       <c r="O61">
-        <v>-0.578071516752243</v>
+        <v>-0.4746280312538147</v>
       </c>
       <c r="P61">
-        <v>-0.4746280312538147</v>
+        <v>-1.490606212615967</v>
       </c>
       <c r="Q61">
-        <v>-1.490606212615967</v>
+        <v>-0.6675339639186859</v>
       </c>
       <c r="R61">
-        <v>-0.6675339639186859</v>
-      </c>
-      <c r="S61">
         <v>-1.02032835483551</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
@@ -4227,34 +4044,31 @@
         <v>84.31</v>
       </c>
       <c r="J62">
-        <v>0.03535654130971699</v>
+        <v>7442.38690267666</v>
       </c>
       <c r="K62">
-        <v>7442.38690267666</v>
-      </c>
-      <c r="L62">
         <v>0</v>
       </c>
+      <c r="M62">
+        <v>0.2600648897890874</v>
+      </c>
       <c r="N62">
-        <v>0.2600648897890874</v>
+        <v>-0.1273823529481888</v>
       </c>
       <c r="O62">
-        <v>-0.1273823529481888</v>
+        <v>-0.6959337174892426</v>
       </c>
       <c r="P62">
-        <v>-0.6959337174892426</v>
+        <v>0.03444927260279655</v>
       </c>
       <c r="Q62">
-        <v>0.03444927260279655</v>
+        <v>-0.7597217202186585</v>
       </c>
       <c r="R62">
-        <v>-0.7597217202186585</v>
-      </c>
-      <c r="S62">
         <v>-0.5343094229698181</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -4283,37 +4097,34 @@
         <v>100</v>
       </c>
       <c r="J63">
-        <v>0.008308129317955238</v>
+        <v>40352.54550003375</v>
       </c>
       <c r="K63">
-        <v>40352.54550003375</v>
+        <v>9.325697898864746</v>
       </c>
       <c r="L63">
-        <v>9.325697898864746</v>
+        <v>90.80785399999999</v>
       </c>
       <c r="M63">
-        <v>90.80785399999999</v>
+        <v>0.03326556393164048</v>
       </c>
       <c r="N63">
-        <v>0.03326556393164048</v>
+        <v>2.192308521270752</v>
       </c>
       <c r="O63">
-        <v>2.192308521270752</v>
+        <v>2.172703814506531</v>
       </c>
       <c r="P63">
-        <v>2.172703814506531</v>
+        <v>1.377042555809021</v>
       </c>
       <c r="Q63">
-        <v>1.377042555809021</v>
+        <v>1.981337785720825</v>
       </c>
       <c r="R63">
-        <v>1.981337785720825</v>
-      </c>
-      <c r="S63">
         <v>1.852036833763123</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
@@ -4342,37 +4153,34 @@
         <v>100</v>
       </c>
       <c r="J64">
-        <v>0.01778381678460086</v>
+        <v>38216.48437211901</v>
       </c>
       <c r="K64">
-        <v>38216.48437211901</v>
+        <v>10</v>
       </c>
       <c r="L64">
-        <v>10</v>
+        <v>69.81012799999999</v>
       </c>
       <c r="M64">
-        <v>69.81012799999999</v>
+        <v>0.08586455273228363</v>
       </c>
       <c r="N64">
-        <v>0.08586455273228363</v>
+        <v>1.419766879081726</v>
       </c>
       <c r="O64">
-        <v>1.419766879081726</v>
+        <v>1.402944731712341</v>
       </c>
       <c r="P64">
-        <v>1.402944731712341</v>
+        <v>0.5176669061183929</v>
       </c>
       <c r="Q64">
-        <v>0.5176669061183929</v>
+        <v>1.464460635185242</v>
       </c>
       <c r="R64">
-        <v>1.464460635185242</v>
-      </c>
-      <c r="S64">
         <v>1.167989897727966</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
@@ -4395,37 +4203,34 @@
         <v>0.03166248423617448</v>
       </c>
       <c r="J65">
-        <v>0.03166248423617448</v>
+        <v>14601.05878394199</v>
       </c>
       <c r="K65">
-        <v>14601.05878394199</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>32.766004</v>
       </c>
       <c r="M65">
-        <v>32.766004</v>
+        <v>0.8409901262585073</v>
       </c>
       <c r="N65">
-        <v>0.8409901262585073</v>
+        <v>-0.7610007166862488</v>
       </c>
       <c r="O65">
-        <v>-0.7610007166862488</v>
+        <v>-0.7894029140472412</v>
       </c>
       <c r="P65">
-        <v>-0.7894029140472412</v>
+        <v>0.2914214253425598</v>
       </c>
       <c r="Q65">
-        <v>0.2914214253425598</v>
+        <v>-0.4993650138378143</v>
       </c>
       <c r="R65">
-        <v>-0.4993650138378143</v>
-      </c>
-      <c r="S65">
         <v>-0.6232749104499817</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -4454,37 +4259,34 @@
         <v>55.14</v>
       </c>
       <c r="J66">
-        <v>-0.01234589489203233</v>
+        <v>1568.091343104197</v>
       </c>
       <c r="K66">
-        <v>1568.091343104197</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>31.623812</v>
       </c>
       <c r="M66">
-        <v>31.623812</v>
+        <v>0.6347743059194098</v>
       </c>
       <c r="N66">
-        <v>0.6347743059194098</v>
+        <v>-0.627693235874176</v>
       </c>
       <c r="O66">
-        <v>-0.627693235874176</v>
+        <v>-0.6348684072494507</v>
       </c>
       <c r="P66">
-        <v>-0.6348684072494507</v>
+        <v>-0.0271339162660297</v>
       </c>
       <c r="Q66">
-        <v>-0.0271339162660297</v>
+        <v>-0.6014390707015991</v>
       </c>
       <c r="R66">
-        <v>-0.6014390707015991</v>
-      </c>
-      <c r="S66">
         <v>-0.3459660351276398</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
@@ -4507,37 +4309,34 @@
         <v>0.06435962180843932</v>
       </c>
       <c r="J67">
-        <v>0.06435962180843932</v>
+        <v>8446.532358723995</v>
       </c>
       <c r="K67">
-        <v>8446.532358723995</v>
+        <v>8.399308204650879</v>
       </c>
       <c r="L67">
-        <v>8.399308204650879</v>
+        <v>46.465938</v>
       </c>
       <c r="M67">
-        <v>46.465938</v>
+        <v>0.1836993025158654</v>
       </c>
       <c r="N67">
-        <v>0.1836993025158654</v>
+        <v>0.3565449729561806</v>
       </c>
       <c r="O67">
-        <v>0.3565449729561806</v>
+        <v>0.5086322367191315</v>
       </c>
       <c r="P67">
-        <v>0.5086322367191315</v>
+        <v>-0.5637201070785522</v>
       </c>
       <c r="Q67">
-        <v>-0.5637201070785522</v>
+        <v>-0.03269750997424126</v>
       </c>
       <c r="R67">
-        <v>-0.03269750997424126</v>
-      </c>
-      <c r="S67">
         <v>0.7284727334976197</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:18">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -4566,37 +4365,34 @@
         <v>99.68000000000001</v>
       </c>
       <c r="J68">
-        <v>0.03495171435367918</v>
+        <v>43520.9901226458</v>
       </c>
       <c r="K68">
-        <v>43520.9901226458</v>
+        <v>9.108871459960938</v>
       </c>
       <c r="L68">
-        <v>9.108871459960938</v>
+        <v>79.092288</v>
       </c>
       <c r="M68">
-        <v>79.092288</v>
+        <v>0.02519778906315168</v>
       </c>
       <c r="N68">
-        <v>0.02519778906315168</v>
+        <v>1.800262069702149</v>
       </c>
       <c r="O68">
-        <v>1.800262069702149</v>
+        <v>1.598682689666748</v>
       </c>
       <c r="P68">
-        <v>1.598682689666748</v>
+        <v>0.8535689115524292</v>
       </c>
       <c r="Q68">
-        <v>0.8535689115524292</v>
+        <v>1.683737874031067</v>
       </c>
       <c r="R68">
-        <v>1.683737874031067</v>
-      </c>
-      <c r="S68">
         <v>1.58401939868927</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,37 +4421,34 @@
         <v>56.25</v>
       </c>
       <c r="J69">
-        <v>0.07322275057106398</v>
+        <v>3445.03816808592</v>
       </c>
       <c r="K69">
-        <v>3445.03816808592</v>
+        <v>6.612167358398438</v>
       </c>
       <c r="L69">
-        <v>6.612167358398438</v>
+        <v>43.70152</v>
       </c>
       <c r="M69">
-        <v>43.70152</v>
+        <v>0.6047370241108634</v>
       </c>
       <c r="N69">
-        <v>0.6047370241108634</v>
+        <v>-0.08591361660510302</v>
       </c>
       <c r="O69">
-        <v>-0.08591361660510302</v>
+        <v>-0.1032206818461418</v>
       </c>
       <c r="P69">
-        <v>-0.1032206818461418</v>
+        <v>0.0555396981537342</v>
       </c>
       <c r="Q69">
-        <v>0.0555396981537342</v>
+        <v>0.0357867244631052</v>
       </c>
       <c r="R69">
-        <v>0.0357867244631052</v>
-      </c>
-      <c r="S69">
         <v>0.08955157417804002</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -4684,37 +4477,34 @@
         <v>100</v>
       </c>
       <c r="J70">
-        <v>-0.03638338156824716</v>
+        <v>26636.9995501242</v>
       </c>
       <c r="K70">
-        <v>26636.9995501242</v>
+        <v>9.274714469909668</v>
       </c>
       <c r="L70">
-        <v>9.274714469909668</v>
+        <v>37.577934</v>
       </c>
       <c r="M70">
-        <v>37.577934</v>
+        <v>0.3311240422257918</v>
       </c>
       <c r="N70">
-        <v>0.3311240422257918</v>
+        <v>-0.102703395485878</v>
       </c>
       <c r="O70">
-        <v>-0.102703395485878</v>
+        <v>0.4491652190685272</v>
       </c>
       <c r="P70">
-        <v>0.4491652190685272</v>
+        <v>-0.1509876877069473</v>
       </c>
       <c r="Q70">
-        <v>-0.1509876877069473</v>
+        <v>0.4915034770965576</v>
       </c>
       <c r="R70">
-        <v>0.4915034770965576</v>
-      </c>
-      <c r="S70">
         <v>0.5261636078357697</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -4737,31 +4527,28 @@
         <v>0.01136639852652206</v>
       </c>
       <c r="J71">
-        <v>0.01136639852652206</v>
+        <v>10903.61167171054</v>
       </c>
       <c r="K71">
-        <v>10903.61167171054</v>
-      </c>
-      <c r="L71">
         <v>0</v>
       </c>
+      <c r="N71">
+        <v>0.386194035410881</v>
+      </c>
       <c r="O71">
-        <v>0.386194035410881</v>
+        <v>0.1579592198133469</v>
       </c>
       <c r="P71">
-        <v>0.1579592198133469</v>
+        <v>0.5143775343894958</v>
       </c>
       <c r="Q71">
-        <v>0.5143775343894958</v>
+        <v>0.06742175072431564</v>
       </c>
       <c r="R71">
-        <v>0.06742175072431564</v>
-      </c>
-      <c r="S71">
         <v>0.2830679655075073</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
@@ -4790,37 +4577,34 @@
         <v>63.32</v>
       </c>
       <c r="J72">
-        <v>0.02377652427345165</v>
+        <v>6579.933466140469</v>
       </c>
       <c r="K72">
-        <v>6579.933466140469</v>
+        <v>7.890407562255859</v>
       </c>
       <c r="L72">
-        <v>7.890407562255859</v>
+        <v>30.655562</v>
       </c>
       <c r="M72">
-        <v>30.655562</v>
+        <v>0.7954333591697187</v>
       </c>
       <c r="N72">
-        <v>0.7954333591697187</v>
+        <v>-0.6155135869979859</v>
       </c>
       <c r="O72">
-        <v>-0.6155135869979859</v>
+        <v>-0.7166677832603454</v>
       </c>
       <c r="P72">
-        <v>-0.7166677832603454</v>
+        <v>-0.7121211647987366</v>
       </c>
       <c r="Q72">
-        <v>-0.7121211647987366</v>
+        <v>-1.02370582818985</v>
       </c>
       <c r="R72">
-        <v>-1.02370582818985</v>
-      </c>
-      <c r="S72">
         <v>-0.1708656132221222</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:18">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -4843,37 +4627,34 @@
         <v>0.05830314466661139</v>
       </c>
       <c r="J73">
-        <v>0.05830314466661139</v>
+        <v>1294.219812412786</v>
       </c>
       <c r="K73">
-        <v>1294.219812412786</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>22.820586</v>
       </c>
       <c r="M73">
-        <v>22.820586</v>
+        <v>0.7728977359453616</v>
       </c>
       <c r="N73">
-        <v>0.7728977359453616</v>
+        <v>-1.088193273544312</v>
       </c>
       <c r="O73">
-        <v>-1.088193273544312</v>
+        <v>-1.181393456459045</v>
       </c>
       <c r="P73">
-        <v>-1.181393456459045</v>
+        <v>-1.309448003768921</v>
       </c>
       <c r="Q73">
-        <v>-1.309448003768921</v>
+        <v>-1.413556575775146</v>
       </c>
       <c r="R73">
-        <v>-1.413556575775146</v>
-      </c>
-      <c r="S73">
         <v>-1.03562958240509</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:18">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -4896,37 +4677,34 @@
         <v>0.006338785787124901</v>
       </c>
       <c r="J74">
-        <v>0.006338785787124901</v>
+        <v>1283.039599097692</v>
       </c>
       <c r="K74">
-        <v>1283.039599097692</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>21.20373</v>
       </c>
       <c r="M74">
-        <v>21.20373</v>
+        <v>0.9100632851805436</v>
       </c>
       <c r="N74">
-        <v>0.9100632851805436</v>
+        <v>-1.290929627418518</v>
       </c>
       <c r="O74">
-        <v>-1.290929627418518</v>
+        <v>-1.260945963859558</v>
       </c>
       <c r="P74">
-        <v>-1.260945963859558</v>
+        <v>-0.8032510876655579</v>
       </c>
       <c r="Q74">
-        <v>-0.8032510876655579</v>
+        <v>-1.414271903038025</v>
       </c>
       <c r="R74">
-        <v>-1.414271903038025</v>
-      </c>
-      <c r="S74">
         <v>-1.188049030303955</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
@@ -4955,37 +4733,34 @@
         <v>42.19</v>
       </c>
       <c r="J75">
-        <v>-0.002542782882132211</v>
+        <v>1513.867631254562</v>
       </c>
       <c r="K75">
-        <v>1513.867631254562</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>19.399766</v>
       </c>
       <c r="M75">
-        <v>19.399766</v>
+        <v>0.7647130673278472</v>
       </c>
       <c r="N75">
-        <v>0.7647130673278472</v>
+        <v>-1.202102255821228</v>
       </c>
       <c r="O75">
-        <v>-1.202102255821228</v>
+        <v>-1.713057112693787</v>
       </c>
       <c r="P75">
-        <v>-1.713057112693787</v>
+        <v>-0.7986436605453491</v>
       </c>
       <c r="Q75">
-        <v>-0.7986436605453491</v>
+        <v>-1.317040467262268</v>
       </c>
       <c r="R75">
-        <v>-1.317040467262268</v>
-      </c>
-      <c r="S75">
         <v>-1.004131412506104</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
@@ -5014,37 +4789,34 @@
         <v>69.34999999999999</v>
       </c>
       <c r="J76">
-        <v>0.02257832406418636</v>
+        <v>4301.120217478596</v>
       </c>
       <c r="K76">
-        <v>4301.120217478596</v>
+        <v>6.983421802520752</v>
       </c>
       <c r="L76">
-        <v>6.983421802520752</v>
+        <v>26.583806</v>
       </c>
       <c r="M76">
-        <v>26.583806</v>
+        <v>0.7696061307080562</v>
       </c>
       <c r="N76">
-        <v>0.7696061307080562</v>
+        <v>-0.8804426312446594</v>
       </c>
       <c r="O76">
-        <v>-0.8804426312446594</v>
+        <v>-0.6827932357788086</v>
       </c>
       <c r="P76">
-        <v>-0.6827932357788086</v>
+        <v>-0.4420312225818634</v>
       </c>
       <c r="Q76">
-        <v>-0.4420312225818634</v>
+        <v>-1.006267690658569</v>
       </c>
       <c r="R76">
-        <v>-1.006267690658569</v>
-      </c>
-      <c r="S76">
         <v>-0.2268997102975845</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:18">
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
@@ -5073,13 +4845,10 @@
         <v>82.56</v>
       </c>
       <c r="J77">
-        <v>0.02275020895120838</v>
-      </c>
-      <c r="K77">
         <v>50104.95081063751</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:18">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -5108,37 +4877,34 @@
         <v>97</v>
       </c>
       <c r="J78">
-        <v>0.03463007915869913</v>
+        <v>23882.35340602421</v>
       </c>
       <c r="K78">
-        <v>23882.35340602421</v>
+        <v>10</v>
       </c>
       <c r="L78">
-        <v>10</v>
+        <v>51.110896</v>
       </c>
       <c r="M78">
-        <v>51.110896</v>
+        <v>0.3127204043365404</v>
       </c>
       <c r="N78">
-        <v>0.3127204043365404</v>
+        <v>0.3215486973524094</v>
       </c>
       <c r="O78">
-        <v>0.3215486973524094</v>
+        <v>0.6317701458930969</v>
       </c>
       <c r="P78">
-        <v>0.6317701458930969</v>
+        <v>0.7142767071723938</v>
       </c>
       <c r="Q78">
-        <v>0.7142767071723938</v>
+        <v>0.648973572254181</v>
       </c>
       <c r="R78">
-        <v>0.648973572254181</v>
-      </c>
-      <c r="S78">
         <v>0.9390491366386413</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:18">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5167,37 +4933,34 @@
         <v>90</v>
       </c>
       <c r="J79">
-        <v>0.006713859676773293</v>
+        <v>40276.97003526426</v>
       </c>
       <c r="K79">
-        <v>40276.97003526426</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>81.348054</v>
       </c>
       <c r="M79">
-        <v>81.348054</v>
+        <v>0.02732731134944848</v>
       </c>
       <c r="N79">
-        <v>0.02732731134944848</v>
+        <v>1.901712322235107</v>
       </c>
       <c r="O79">
-        <v>1.901712322235107</v>
+        <v>1.528293657302856</v>
       </c>
       <c r="P79">
-        <v>1.528293657302856</v>
+        <v>1.209080743789673</v>
       </c>
       <c r="Q79">
-        <v>1.209080743789673</v>
+        <v>1.693473958969116</v>
       </c>
       <c r="R79">
-        <v>1.693473958969116</v>
-      </c>
-      <c r="S79">
         <v>1.091397905349731</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:18">
       <c r="A80" s="1" t="s">
         <v>96</v>
       </c>
@@ -5226,37 +4989,34 @@
         <v>61.99</v>
       </c>
       <c r="J80">
-        <v>0.06794541486408039</v>
+        <v>4741.722959399514</v>
       </c>
       <c r="K80">
-        <v>4741.722959399514</v>
+        <v>5.144877910614014</v>
       </c>
       <c r="L80">
-        <v>5.144877910614014</v>
+        <v>34.798174</v>
       </c>
       <c r="M80">
-        <v>34.798174</v>
+        <v>0.5272178656312488</v>
       </c>
       <c r="N80">
-        <v>0.5272178656312488</v>
+        <v>-0.4926201462745666</v>
       </c>
       <c r="O80">
-        <v>-0.4926201462745666</v>
+        <v>-0.1032364489510655</v>
       </c>
       <c r="P80">
-        <v>-0.1032364489510655</v>
+        <v>-1.224235165119171</v>
       </c>
       <c r="Q80">
-        <v>-1.224235165119171</v>
+        <v>-0.06412288397550583</v>
       </c>
       <c r="R80">
-        <v>-0.06412288397550583</v>
-      </c>
-      <c r="S80">
         <v>-0.4228689849376678</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:18">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -5285,37 +5045,34 @@
         <v>77.56999999999999</v>
       </c>
       <c r="J81">
-        <v>0.08847057632552816</v>
+        <v>8928.405861936157</v>
       </c>
       <c r="K81">
-        <v>8928.405861936157</v>
+        <v>7.681591510772705</v>
       </c>
       <c r="L81">
-        <v>7.681591510772705</v>
+        <v>31.25562</v>
       </c>
       <c r="M81">
-        <v>31.25562</v>
+        <v>0.7304092809021882</v>
       </c>
       <c r="N81">
-        <v>0.7304092809021882</v>
+        <v>-0.65372154712677</v>
       </c>
       <c r="O81">
-        <v>-0.65372154712677</v>
+        <v>-0.1965187482535839</v>
       </c>
       <c r="P81">
-        <v>-0.1965187482535839</v>
+        <v>-0.6306763648986816</v>
       </c>
       <c r="Q81">
-        <v>-0.6306763648986816</v>
+        <v>-0.5363317728042603</v>
       </c>
       <c r="R81">
-        <v>-0.5363317728042603</v>
-      </c>
-      <c r="S81">
         <v>-0.2699268355965614</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:18">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
@@ -5344,37 +5101,34 @@
         <v>76.98</v>
       </c>
       <c r="J82">
-        <v>-0.003535467913658263</v>
+        <v>16501.33013983339</v>
       </c>
       <c r="K82">
-        <v>16501.33013983339</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>25.840742</v>
       </c>
       <c r="M82">
-        <v>25.840742</v>
+        <v>0.6884008085508969</v>
       </c>
       <c r="N82">
-        <v>0.6884008085508969</v>
+        <v>-0.783426821231842</v>
       </c>
       <c r="O82">
-        <v>-0.783426821231842</v>
+        <v>-0.5082843065261841</v>
       </c>
       <c r="P82">
-        <v>-0.5082843065261841</v>
+        <v>-1.300191986560822</v>
       </c>
       <c r="Q82">
-        <v>-1.300191986560822</v>
+        <v>-0.9911814570426941</v>
       </c>
       <c r="R82">
-        <v>-0.9911814570426941</v>
-      </c>
-      <c r="S82">
         <v>-1.521173286437988</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:18">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
@@ -5403,37 +5157,34 @@
         <v>50.56</v>
       </c>
       <c r="J83">
-        <v>0.09410780103974366</v>
+        <v>12043.7926198329</v>
       </c>
       <c r="K83">
-        <v>12043.7926198329</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>16.608256</v>
       </c>
       <c r="M83">
-        <v>16.608256</v>
+        <v>0.7731827497799534</v>
       </c>
       <c r="N83">
-        <v>0.7731827497799534</v>
+        <v>-1.251660847663879</v>
       </c>
       <c r="O83">
-        <v>-1.251660847663879</v>
+        <v>-1.12873067855835</v>
       </c>
       <c r="P83">
-        <v>-1.12873067855835</v>
+        <v>-2.102405834197998</v>
       </c>
       <c r="Q83">
-        <v>-2.102405834197998</v>
+        <v>-1.450704145431519</v>
       </c>
       <c r="R83">
-        <v>-1.450704145431519</v>
-      </c>
-      <c r="S83">
         <v>-1.177201581001282</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:18">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
@@ -5462,37 +5213,34 @@
         <v>100</v>
       </c>
       <c r="J84">
-        <v>0.02609818339330454</v>
+        <v>45959.59080131475</v>
       </c>
       <c r="K84">
-        <v>45959.59080131475</v>
+        <v>8.639165878295898</v>
       </c>
       <c r="L84">
-        <v>8.639165878295898</v>
+        <v>74.072078</v>
       </c>
       <c r="M84">
-        <v>74.072078</v>
+        <v>0.0900041491013506</v>
       </c>
       <c r="N84">
-        <v>0.0900041491013506</v>
+        <v>1.571672224998474</v>
       </c>
       <c r="O84">
-        <v>1.571672224998474</v>
+        <v>1.487012410163879</v>
       </c>
       <c r="P84">
-        <v>1.487012410163879</v>
+        <v>0.9728607654571533</v>
       </c>
       <c r="Q84">
-        <v>0.9728607654571533</v>
+        <v>1.753837132453918</v>
       </c>
       <c r="R84">
-        <v>1.753837132453918</v>
-      </c>
-      <c r="S84">
         <v>1.62808313369751</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
         <v>101</v>
       </c>
@@ -5515,37 +5263,34 @@
         <v>0.01755623058809097</v>
       </c>
       <c r="J85">
-        <v>0.01755623058809097</v>
+        <v>32112.23360580421</v>
       </c>
       <c r="K85">
-        <v>32112.23360580421</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>60.01376</v>
       </c>
       <c r="M85">
-        <v>60.01376</v>
+        <v>0.1325463279407126</v>
       </c>
       <c r="N85">
-        <v>0.1325463279407126</v>
+        <v>0.8497218012809753</v>
       </c>
       <c r="O85">
-        <v>0.8497218012809753</v>
+        <v>1.294243383407593</v>
       </c>
       <c r="P85">
-        <v>1.294243383407593</v>
+        <v>-1.152478837966919</v>
       </c>
       <c r="Q85">
-        <v>-1.152478837966919</v>
+        <v>0.9898293852806092</v>
       </c>
       <c r="R85">
-        <v>0.9898293852806092</v>
-      </c>
-      <c r="S85">
         <v>1.218799304962158</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:18">
       <c r="A86" s="1" t="s">
         <v>102</v>
       </c>
@@ -5574,37 +5319,34 @@
         <v>95.84</v>
       </c>
       <c r="J86">
-        <v>0.001689565227256073</v>
+        <v>35902.9841768618</v>
       </c>
       <c r="K86">
-        <v>35902.9841768618</v>
+        <v>10</v>
       </c>
       <c r="L86">
-        <v>10</v>
+        <v>41.213826</v>
       </c>
       <c r="M86">
-        <v>41.213826</v>
+        <v>0.2710508358537654</v>
       </c>
       <c r="N86">
-        <v>0.2710508358537654</v>
+        <v>0.07939117066562176</v>
       </c>
       <c r="O86">
-        <v>0.07939117066562176</v>
+        <v>0.4145496666431427</v>
       </c>
       <c r="P86">
-        <v>0.4145496666431427</v>
+        <v>0.4874026417732239</v>
       </c>
       <c r="Q86">
-        <v>0.4874026417732239</v>
+        <v>0.4160908877849579</v>
       </c>
       <c r="R86">
-        <v>0.4160908877849579</v>
-      </c>
-      <c r="S86">
         <v>0.7581311702728272</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:18">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
@@ -5633,37 +5375,34 @@
         <v>89.92</v>
       </c>
       <c r="J87">
-        <v>0.005588035519160294</v>
+        <v>7481.496904073356</v>
       </c>
       <c r="K87">
-        <v>7481.496904073356</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>36.082474</v>
       </c>
       <c r="M87">
-        <v>36.082474</v>
+        <v>0.223685248004126</v>
       </c>
       <c r="N87">
-        <v>0.223685248004126</v>
+        <v>-0.2451899409294128</v>
       </c>
       <c r="O87">
-        <v>-0.2451899409294128</v>
+        <v>0.125938724912703</v>
       </c>
       <c r="P87">
-        <v>0.125938724912703</v>
+        <v>-0.03302995711565018</v>
       </c>
       <c r="Q87">
-        <v>-0.03302995711565018</v>
+        <v>-0.3720767319202423</v>
       </c>
       <c r="R87">
-        <v>-0.3720767319202423</v>
-      </c>
-      <c r="S87">
         <v>0.2376445263624191</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:18">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -5692,37 +5431,34 @@
         <v>99</v>
       </c>
       <c r="J88">
-        <v>0.01175688161737225</v>
+        <v>35017.30585093758</v>
       </c>
       <c r="K88">
-        <v>35017.30585093758</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>76.48179999999999</v>
       </c>
       <c r="M88">
-        <v>76.48179999999999</v>
+        <v>0.102688894233731</v>
       </c>
       <c r="N88">
-        <v>0.102688894233731</v>
+        <v>1.619800138473511</v>
       </c>
       <c r="O88">
-        <v>1.619800138473511</v>
+        <v>1.569305562973022</v>
       </c>
       <c r="P88">
-        <v>1.569305562973022</v>
+        <v>0.9621254563331604</v>
       </c>
       <c r="Q88">
-        <v>0.9621254563331604</v>
+        <v>1.408298969268799</v>
       </c>
       <c r="R88">
-        <v>1.408298969268799</v>
-      </c>
-      <c r="S88">
         <v>1.100151228904724</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
@@ -5751,37 +5487,34 @@
         <v>88.81</v>
       </c>
       <c r="J89">
-        <v>0.01729458237982684</v>
+        <v>10281.54654854449</v>
       </c>
       <c r="K89">
-        <v>10281.54654854449</v>
+        <v>8.513875961303711</v>
       </c>
       <c r="L89">
-        <v>8.513875961303711</v>
+        <v>46.771504</v>
       </c>
       <c r="M89">
-        <v>46.771504</v>
+        <v>0.4933308239387358</v>
       </c>
       <c r="N89">
-        <v>0.4933308239387358</v>
+        <v>0.0835903562605381</v>
       </c>
       <c r="O89">
-        <v>0.0835903562605381</v>
+        <v>0.04971034787595272</v>
       </c>
       <c r="P89">
-        <v>0.04971034787595272</v>
+        <v>-0.4992746412754059</v>
       </c>
       <c r="Q89">
-        <v>-0.4992746412754059</v>
+        <v>0.3314342260360718</v>
       </c>
       <c r="R89">
-        <v>0.3314342260360718</v>
-      </c>
-      <c r="S89">
         <v>0.1855007514357567</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:18">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
@@ -5804,37 +5537,34 @@
         <v>0.09278460201337664</v>
       </c>
       <c r="J90">
-        <v>0.09278460201337664</v>
+        <v>21617.21129479812</v>
       </c>
       <c r="K90">
-        <v>21617.21129479812</v>
+        <v>7.926363468170166</v>
       </c>
       <c r="L90">
-        <v>7.926363468170166</v>
+        <v>27.78795</v>
       </c>
       <c r="M90">
-        <v>27.78795</v>
+        <v>0.8388983978985054</v>
       </c>
       <c r="N90">
-        <v>0.8388983978985054</v>
+        <v>-0.9335845112800598</v>
       </c>
       <c r="O90">
-        <v>-0.9335845112800598</v>
+        <v>-0.3723302081227303</v>
       </c>
       <c r="P90">
-        <v>-0.3723302081227303</v>
+        <v>-0.1181019023060799</v>
       </c>
       <c r="Q90">
-        <v>-0.1181019023060799</v>
+        <v>-0.6327363848686218</v>
       </c>
       <c r="R90">
-        <v>-0.6327363848686218</v>
-      </c>
-      <c r="S90">
         <v>-0.3136680692434311</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:18">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -5863,37 +5593,34 @@
         <v>50</v>
       </c>
       <c r="J91">
-        <v>0.03857827187076195</v>
+        <v>2623.202570287522</v>
       </c>
       <c r="K91">
-        <v>2623.202570287522</v>
+        <v>6.643651485443115</v>
       </c>
       <c r="L91">
-        <v>6.643651485443115</v>
+        <v>24.48698</v>
       </c>
       <c r="M91">
-        <v>24.48698</v>
+        <v>0.7271119447547907</v>
       </c>
       <c r="N91">
-        <v>0.7271119447547907</v>
+        <v>-0.9836642265319824</v>
       </c>
       <c r="O91">
-        <v>-0.9836642265319824</v>
+        <v>-0.4875062167644501</v>
       </c>
       <c r="P91">
-        <v>-0.4875062167644501</v>
+        <v>-1.236586737632752</v>
       </c>
       <c r="Q91">
-        <v>-1.236586737632752</v>
+        <v>-0.7595635771751403</v>
       </c>
       <c r="R91">
-        <v>-0.7595635771751403</v>
-      </c>
-      <c r="S91">
         <v>-0.242496095597744</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
@@ -5922,37 +5649,34 @@
         <v>100</v>
       </c>
       <c r="J92">
-        <v>0.02204375386401278</v>
+        <v>70464.74793453228</v>
       </c>
       <c r="K92">
-        <v>70464.74793453228</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>44.432062</v>
       </c>
       <c r="M92">
-        <v>44.432062</v>
+        <v>0.575663420136287</v>
       </c>
       <c r="N92">
-        <v>0.575663420136287</v>
+        <v>-0.0461283341050148</v>
       </c>
       <c r="O92">
-        <v>-0.0461283341050148</v>
+        <v>-0.01923104301095009</v>
       </c>
       <c r="P92">
-        <v>-0.01923104301095009</v>
+        <v>0.2563519775867462</v>
       </c>
       <c r="Q92">
-        <v>0.2563519775867462</v>
+        <v>0.3793399129062891</v>
       </c>
       <c r="R92">
-        <v>0.3793399129062891</v>
-      </c>
-      <c r="S92">
         <v>-0.002029143273830414</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:18">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -5975,37 +5699,34 @@
         <v>0.03961034090528137</v>
       </c>
       <c r="J93">
-        <v>0.03961034090528137</v>
+        <v>3231.309839263674</v>
       </c>
       <c r="K93">
-        <v>3231.309839263674</v>
+        <v>7.739804744720459</v>
       </c>
       <c r="L93">
-        <v>7.739804744720459</v>
+        <v>23.239756</v>
       </c>
       <c r="M93">
-        <v>23.239756</v>
+        <v>0.8278981433422044</v>
       </c>
       <c r="N93">
-        <v>0.8278981433422044</v>
+        <v>-1.166496086120606</v>
       </c>
       <c r="O93">
-        <v>-1.166496086120606</v>
+        <v>-0.6912991166114807</v>
       </c>
       <c r="P93">
-        <v>-0.6912991166114807</v>
+        <v>-0.9530647754669189</v>
       </c>
       <c r="Q93">
-        <v>-0.9530647754669189</v>
+        <v>-1.124561047554016</v>
       </c>
       <c r="R93">
-        <v>-1.124561047554016</v>
-      </c>
-      <c r="S93">
         <v>-0.308214271068573</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:18">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
@@ -6028,37 +5749,34 @@
         <v>0.09462278765542984</v>
       </c>
       <c r="J94">
-        <v>0.09462278765542984</v>
+        <v>4718.433717849852</v>
       </c>
       <c r="K94">
-        <v>4718.433717849852</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>23.027934</v>
       </c>
       <c r="M94">
-        <v>23.027934</v>
+        <v>0.7852831042389079</v>
       </c>
       <c r="N94">
-        <v>0.7852831042389079</v>
+        <v>-1.034583854675293</v>
       </c>
       <c r="O94">
-        <v>-1.034583854675293</v>
+        <v>-0.7353892028331757</v>
       </c>
       <c r="P94">
-        <v>-0.7353892028331757</v>
+        <v>0.05196114331483841</v>
       </c>
       <c r="Q94">
-        <v>0.05196114331483841</v>
+        <v>-0.8767161726951599</v>
       </c>
       <c r="R94">
-        <v>-0.8767161726951599</v>
-      </c>
-      <c r="S94">
         <v>-0.9005688667297364</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:18">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6081,37 +5799,34 @@
         <v>0.05907826684056557</v>
       </c>
       <c r="J95">
-        <v>0.05907826684056557</v>
+        <v>21051.71310122008</v>
       </c>
       <c r="K95">
-        <v>21051.71310122008</v>
+        <v>9.546862602233887</v>
       </c>
       <c r="L95">
-        <v>9.546862602233887</v>
+        <v>48.3886</v>
       </c>
       <c r="M95">
-        <v>48.3886</v>
+        <v>0.1299080248245882</v>
       </c>
       <c r="N95">
-        <v>0.1299080248245882</v>
+        <v>0.3008389562368393</v>
       </c>
       <c r="O95">
-        <v>0.3008389562368393</v>
+        <v>0.8185947656631469</v>
       </c>
       <c r="P95">
-        <v>0.8185947656631469</v>
+        <v>0.476477301120758</v>
       </c>
       <c r="Q95">
-        <v>0.476477301120758</v>
+        <v>0.7921073079109192</v>
       </c>
       <c r="R95">
-        <v>0.7921073079109192</v>
-      </c>
-      <c r="S95">
         <v>1.03511974811554</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:18">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -6134,37 +5849,34 @@
         <v>-0.03416758774803254</v>
       </c>
       <c r="J96">
-        <v>-0.03416758774803254</v>
+        <v>15211.14945545996</v>
       </c>
       <c r="K96">
-        <v>15211.14945545996</v>
+        <v>5.881272315979004</v>
       </c>
       <c r="L96">
-        <v>5.881272315979004</v>
+        <v>26.973688</v>
       </c>
       <c r="M96">
-        <v>26.973688</v>
+        <v>0.681955832230054</v>
       </c>
       <c r="N96">
-        <v>0.681955832230054</v>
+        <v>-0.9216905474662781</v>
       </c>
       <c r="O96">
-        <v>-0.9216905474662781</v>
+        <v>-0.3325637996196747</v>
       </c>
       <c r="P96">
-        <v>-0.3325637996196747</v>
+        <v>-1.647281908988953</v>
       </c>
       <c r="Q96">
-        <v>-1.647281908988953</v>
+        <v>-0.7383142352104187</v>
       </c>
       <c r="R96">
-        <v>-0.7383142352104187</v>
-      </c>
-      <c r="S96">
         <v>-0.08979924395680428</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:18">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6193,37 +5905,34 @@
         <v>43.16</v>
       </c>
       <c r="J97">
-        <v>0.033248873237726</v>
+        <v>2304.775189274095</v>
       </c>
       <c r="K97">
-        <v>2304.775189274095</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>42.63221</v>
       </c>
       <c r="M97">
-        <v>42.63221</v>
+        <v>0.3686147862542072</v>
       </c>
       <c r="N97">
-        <v>0.3686147862542072</v>
+        <v>0.1814874142408371</v>
       </c>
       <c r="O97">
-        <v>0.1814874142408371</v>
+        <v>-0.3938482224941254</v>
       </c>
       <c r="P97">
-        <v>-0.3938482224941254</v>
+        <v>0.2240355014801025</v>
       </c>
       <c r="Q97">
-        <v>0.2240355014801025</v>
+        <v>-0.2371832877397537</v>
       </c>
       <c r="R97">
-        <v>-0.2371832877397537</v>
-      </c>
-      <c r="S97">
         <v>-0.4983188092708588</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:18">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -6252,37 +5961,34 @@
         <v>43.21</v>
       </c>
       <c r="J98">
-        <v>0.04573923103443529</v>
+        <v>765.6585093919155</v>
       </c>
       <c r="K98">
-        <v>765.6585093919155</v>
+        <v>4.298254013061523</v>
       </c>
       <c r="L98">
-        <v>4.298254013061523</v>
+        <v>36.17759</v>
       </c>
       <c r="M98">
-        <v>36.17759</v>
+        <v>0.7858995332592162</v>
       </c>
       <c r="N98">
-        <v>0.7858995332592162</v>
+        <v>-0.6626939415931702</v>
       </c>
       <c r="O98">
-        <v>-0.6626939415931702</v>
+        <v>-1.285930848121643</v>
       </c>
       <c r="P98">
-        <v>-1.285930848121643</v>
+        <v>-0.4942657470703125</v>
       </c>
       <c r="Q98">
-        <v>-0.4942657470703125</v>
+        <v>-0.892139196395874</v>
       </c>
       <c r="R98">
-        <v>-0.892139196395874</v>
-      </c>
-      <c r="S98">
         <v>-0.994852888584137</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6305,37 +6011,34 @@
         <v>0.08369519233194414</v>
       </c>
       <c r="J99">
-        <v>0.08369519233194414</v>
+        <v>24513.92312695289</v>
       </c>
       <c r="K99">
-        <v>24513.92312695289</v>
+        <v>9.826990127563477</v>
       </c>
       <c r="L99">
-        <v>9.826990127563477</v>
+        <v>53.30393</v>
       </c>
       <c r="M99">
-        <v>53.30393</v>
+        <v>0.1671212552691856</v>
       </c>
       <c r="N99">
-        <v>0.1671212552691856</v>
+        <v>0.4165445625782013</v>
       </c>
       <c r="O99">
-        <v>0.4165445625782013</v>
+        <v>0.8189704656600952</v>
       </c>
       <c r="P99">
-        <v>0.8189704656600952</v>
+        <v>0.7758679151535034</v>
       </c>
       <c r="Q99">
-        <v>0.7758679151535034</v>
+        <v>0.8365834712982178</v>
       </c>
       <c r="R99">
-        <v>0.8365834712982178</v>
-      </c>
-      <c r="S99">
         <v>1.073067200183868</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:18">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -6364,34 +6067,31 @@
         <v>92.65000000000001</v>
       </c>
       <c r="J100">
-        <v>0.03343158589611073</v>
+        <v>90497.03634185539</v>
       </c>
       <c r="K100">
-        <v>90497.03634185539</v>
+        <v>10</v>
       </c>
       <c r="L100">
-        <v>10</v>
-      </c>
-      <c r="M100">
         <v>82.41405999999999</v>
       </c>
+      <c r="N100">
+        <v>2.105111074447632</v>
+      </c>
       <c r="O100">
-        <v>2.105111074447632</v>
+        <v>1.685333037376404</v>
       </c>
       <c r="P100">
-        <v>1.685333037376404</v>
+        <v>1.364827227592468</v>
       </c>
       <c r="Q100">
-        <v>1.364827227592468</v>
+        <v>1.841264915466309</v>
       </c>
       <c r="R100">
-        <v>1.841264915466309</v>
-      </c>
-      <c r="S100">
         <v>1.744135355949402</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:18">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -6414,37 +6114,34 @@
         <v>0.2439660099013187</v>
       </c>
       <c r="J101">
-        <v>0.2439660099013187</v>
+        <v>1082.259721997366</v>
       </c>
       <c r="K101">
-        <v>1082.259721997366</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>28.881608</v>
       </c>
       <c r="M101">
-        <v>28.881608</v>
+        <v>0.9179041631045832</v>
       </c>
       <c r="N101">
-        <v>0.9179041631045832</v>
+        <v>-0.6335071206092835</v>
       </c>
       <c r="O101">
-        <v>-0.6335071206092835</v>
+        <v>-1.102317988872528</v>
       </c>
       <c r="P101">
-        <v>-1.102317988872528</v>
+        <v>-0.6874581933021545</v>
       </c>
       <c r="Q101">
-        <v>-0.6874581933021545</v>
+        <v>-0.8643456697463989</v>
       </c>
       <c r="R101">
-        <v>-0.8643456697463989</v>
-      </c>
-      <c r="S101">
         <v>-0.5996964335441589</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:18">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -6473,37 +6170,34 @@
         <v>29.63</v>
       </c>
       <c r="J102">
-        <v>-0.01834724832543384</v>
+        <v>998.1515710711028</v>
       </c>
       <c r="K102">
-        <v>998.1515710711028</v>
+        <v>8.147425651550293</v>
       </c>
       <c r="L102">
-        <v>8.147425651550293</v>
+        <v>34.20457</v>
       </c>
       <c r="M102">
-        <v>34.20457</v>
+        <v>0.6683094640085411</v>
       </c>
       <c r="N102">
-        <v>0.6683094640085411</v>
+        <v>-0.5468522369861603</v>
       </c>
       <c r="O102">
-        <v>-0.5468522369861603</v>
+        <v>-0.4845410227775574</v>
       </c>
       <c r="P102">
-        <v>-0.4845410227775574</v>
+        <v>-0.03128394414670765</v>
       </c>
       <c r="Q102">
-        <v>-0.03128394414670765</v>
+        <v>-0.1895970165729523</v>
       </c>
       <c r="R102">
-        <v>-0.1895970165729523</v>
-      </c>
-      <c r="S102">
         <v>-0.6926844358444214</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:18">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -6532,37 +6226,34 @@
         <v>67</v>
       </c>
       <c r="J103">
-        <v>0.04441708512206914</v>
+        <v>21638.53335851311</v>
       </c>
       <c r="K103">
-        <v>21638.53335851311</v>
+        <v>7.924593925476074</v>
       </c>
       <c r="L103">
-        <v>7.924593925476074</v>
+        <v>47.614832</v>
       </c>
       <c r="M103">
-        <v>47.614832</v>
+        <v>0.5450732037526735</v>
       </c>
       <c r="N103">
-        <v>0.5450732037526735</v>
+        <v>0.2235447775572538</v>
       </c>
       <c r="O103">
-        <v>0.2235447775572538</v>
+        <v>1.035295820236206</v>
       </c>
       <c r="P103">
-        <v>1.035295820236206</v>
+        <v>0.1067920478992164</v>
       </c>
       <c r="Q103">
-        <v>0.1067920478992164</v>
+        <v>0.4891880035400391</v>
       </c>
       <c r="R103">
-        <v>0.4891880035400391</v>
-      </c>
-      <c r="S103">
         <v>0.6431837916374207</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:18">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -6585,37 +6276,34 @@
         <v>0.03282248129213934</v>
       </c>
       <c r="J104">
-        <v>0.03282248129213934</v>
+        <v>13408.82456857039</v>
       </c>
       <c r="K104">
-        <v>13408.82456857039</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>23.85391</v>
       </c>
       <c r="M104">
-        <v>23.85391</v>
+        <v>0.7061655942449355</v>
       </c>
       <c r="N104">
-        <v>0.7061655942449355</v>
+        <v>-0.585983794927597</v>
       </c>
       <c r="O104">
-        <v>-0.585983794927597</v>
+        <v>-0.2824270367622376</v>
       </c>
       <c r="P104">
-        <v>-0.2824270367622376</v>
+        <v>0.006017607450485229</v>
       </c>
       <c r="Q104">
-        <v>0.006017607450485229</v>
+        <v>-0.5419309794902801</v>
       </c>
       <c r="R104">
-        <v>-0.5419309794902801</v>
-      </c>
-      <c r="S104">
         <v>-0.3773244857788086</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:18">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -6644,37 +6332,34 @@
         <v>34.81</v>
       </c>
       <c r="J105">
-        <v>0.004572548802832266</v>
+        <v>1440.493902966103</v>
       </c>
       <c r="K105">
-        <v>1440.493902966103</v>
+        <v>7.899706363677979</v>
       </c>
       <c r="L105">
-        <v>7.899706363677979</v>
+        <v>29.717402</v>
       </c>
       <c r="M105">
-        <v>29.717402</v>
+        <v>0.786358076172184</v>
       </c>
       <c r="N105">
-        <v>0.786358076172184</v>
+        <v>-0.734676992893219</v>
       </c>
       <c r="O105">
-        <v>-0.734676992893219</v>
+        <v>-0.9370769381523132</v>
       </c>
       <c r="P105">
-        <v>-0.9370769381523132</v>
+        <v>-1.272351714968681</v>
       </c>
       <c r="Q105">
-        <v>-1.272351714968681</v>
+        <v>-0.6031184315681457</v>
       </c>
       <c r="R105">
-        <v>-0.6031184315681457</v>
-      </c>
-      <c r="S105">
         <v>-0.4801416039466858</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:18">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -6703,34 +6388,31 @@
         <v>96.53</v>
       </c>
       <c r="J106">
-        <v>0.02582624682332284</v>
+        <v>30214.1931336759</v>
       </c>
       <c r="K106">
-        <v>30214.1931336759</v>
+        <v>8.817571640014648</v>
       </c>
       <c r="L106">
-        <v>8.817571640014648</v>
-      </c>
-      <c r="M106">
         <v>55.984928</v>
       </c>
+      <c r="N106">
+        <v>0.8669045805931092</v>
+      </c>
       <c r="O106">
-        <v>0.8669045805931092</v>
+        <v>1.184452891349792</v>
       </c>
       <c r="P106">
-        <v>1.184452891349792</v>
+        <v>1.110144591331482</v>
       </c>
       <c r="Q106">
-        <v>1.110144591331482</v>
+        <v>1.315102052688599</v>
       </c>
       <c r="R106">
-        <v>1.315102052688599</v>
-      </c>
-      <c r="S106">
         <v>1.296055388450623</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:18">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6753,37 +6435,34 @@
         <v>0.07018082288656072</v>
       </c>
       <c r="J107">
-        <v>0.07018082288656072</v>
+        <v>3054.406248305883</v>
       </c>
       <c r="K107">
-        <v>3054.406248305883</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>27.654696</v>
       </c>
       <c r="M107">
-        <v>27.654696</v>
+        <v>0.7699284155494837</v>
       </c>
       <c r="N107">
-        <v>0.7699284155494837</v>
+        <v>-0.777447783946991</v>
       </c>
       <c r="O107">
-        <v>-0.777447783946991</v>
+        <v>-0.9639973640441895</v>
       </c>
       <c r="P107">
-        <v>-0.9639973640441895</v>
+        <v>-0.9976220488548279</v>
       </c>
       <c r="Q107">
-        <v>-0.9976220488548279</v>
+        <v>-0.916218388080597</v>
       </c>
       <c r="R107">
-        <v>-0.916218388080597</v>
-      </c>
-      <c r="S107">
         <v>-0.7414745450019836</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:18">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -6812,37 +6491,34 @@
         <v>81.81999999999999</v>
       </c>
       <c r="J108">
-        <v>0.0358449897562461</v>
+        <v>16600.86086627606</v>
       </c>
       <c r="K108">
-        <v>16600.86086627606</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>53.534296</v>
       </c>
       <c r="M108">
-        <v>53.534296</v>
+        <v>0.6024459912026698</v>
       </c>
       <c r="N108">
-        <v>0.6024459912026698</v>
+        <v>0.4087854981422424</v>
       </c>
       <c r="O108">
-        <v>0.4087854981422424</v>
+        <v>0.9293098449707031</v>
       </c>
       <c r="P108">
-        <v>0.9293098449707031</v>
+        <v>0.8341676592826843</v>
       </c>
       <c r="Q108">
-        <v>0.8341676592826843</v>
+        <v>0.9195155501365662</v>
       </c>
       <c r="R108">
-        <v>0.9195155501365662</v>
-      </c>
-      <c r="S108">
         <v>0.9569626688957215</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:18">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6871,37 +6547,34 @@
         <v>82.73</v>
       </c>
       <c r="J109">
-        <v>0.02822374693505583</v>
+        <v>15416.76120761246</v>
       </c>
       <c r="K109">
-        <v>15416.76120761246</v>
+        <v>7.99879789352417</v>
       </c>
       <c r="L109">
-        <v>7.99879789352417</v>
+        <v>32.74171</v>
       </c>
       <c r="M109">
-        <v>32.74171</v>
+        <v>0.6450393305318961</v>
       </c>
       <c r="N109">
-        <v>0.6450393305318961</v>
+        <v>-0.4898424506187439</v>
       </c>
       <c r="O109">
-        <v>-0.4898424506187439</v>
+        <v>0.270910918712616</v>
       </c>
       <c r="P109">
-        <v>0.270910918712616</v>
+        <v>-0.724965763092041</v>
       </c>
       <c r="Q109">
-        <v>-0.724965763092041</v>
+        <v>-0.5202897012233734</v>
       </c>
       <c r="R109">
-        <v>-0.5202897012233734</v>
-      </c>
-      <c r="S109">
         <v>0.3809319972991944</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:18">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -6924,37 +6597,34 @@
         <v>0.1309531399708308</v>
       </c>
       <c r="J110">
-        <v>0.1309531399708308</v>
+        <v>9588.165561116617</v>
       </c>
       <c r="K110">
-        <v>9588.165561116617</v>
+        <v>8.427892684936523</v>
       </c>
       <c r="L110">
-        <v>8.427892684936523</v>
+        <v>33.353424</v>
       </c>
       <c r="M110">
-        <v>33.353424</v>
+        <v>0.6119476552731562</v>
       </c>
       <c r="N110">
-        <v>0.6119476552731562</v>
+        <v>-0.5830774128437042</v>
       </c>
       <c r="O110">
-        <v>-0.5830774128437042</v>
+        <v>-0.5555675387382507</v>
       </c>
       <c r="P110">
-        <v>-0.5555675387382507</v>
+        <v>0.5915875852108001</v>
       </c>
       <c r="Q110">
-        <v>0.5915875852108001</v>
+        <v>-0.34376739859581</v>
       </c>
       <c r="R110">
-        <v>-0.34376739859581</v>
-      </c>
-      <c r="S110">
         <v>-0.2528818815946579</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:18">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -6977,37 +6647,34 @@
         <v>0.02581307732740996</v>
       </c>
       <c r="J111">
-        <v>0.02581307732740996</v>
+        <v>13786.53677381734</v>
       </c>
       <c r="K111">
-        <v>13786.53677381734</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>40.739956</v>
       </c>
       <c r="M111">
-        <v>40.739956</v>
+        <v>0.5841887848958269</v>
       </c>
       <c r="N111">
-        <v>0.5841887848958269</v>
+        <v>-0.1699057623744011</v>
       </c>
       <c r="O111">
-        <v>-0.1699057623744011</v>
+        <v>0.1488575592637062</v>
       </c>
       <c r="P111">
-        <v>0.1488575592637062</v>
+        <v>0.4940332591533661</v>
       </c>
       <c r="Q111">
-        <v>0.4940332591533661</v>
+        <v>0.03537157494574785</v>
       </c>
       <c r="R111">
-        <v>0.03537157494574785</v>
-      </c>
-      <c r="S111">
         <v>0.0179660752415657</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:18">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -7030,13 +6697,10 @@
         <v>0.0128327877116525</v>
       </c>
       <c r="J112">
-        <v>0.0128327877116525</v>
-      </c>
-      <c r="K112">
         <v>18282.65378087867</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
         <v>129</v>
       </c>
@@ -7065,37 +6729,34 @@
         <v>52.19</v>
       </c>
       <c r="J113">
-        <v>0.03765020424871714</v>
+        <v>6827.001215666799</v>
       </c>
       <c r="K113">
-        <v>6827.001215666799</v>
+        <v>8.135210990905762</v>
       </c>
       <c r="L113">
-        <v>8.135210990905762</v>
+        <v>36.286816</v>
       </c>
       <c r="M113">
-        <v>36.286816</v>
+        <v>0.579644363620889</v>
       </c>
       <c r="N113">
-        <v>0.579644363620889</v>
+        <v>-0.3358562439680099</v>
       </c>
       <c r="O113">
-        <v>-0.3358562439680099</v>
+        <v>-0.0849257729947567</v>
       </c>
       <c r="P113">
-        <v>-0.0849257729947567</v>
+        <v>-0.437002420425415</v>
       </c>
       <c r="Q113">
-        <v>-0.437002420425415</v>
+        <v>-0.1843589544296265</v>
       </c>
       <c r="R113">
-        <v>-0.1843589544296265</v>
-      </c>
-      <c r="S113">
         <v>-0.1055074706673622</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:18">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -7124,37 +6785,34 @@
         <v>21.77</v>
       </c>
       <c r="J114">
-        <v>0.03280691091872669</v>
+        <v>1009.336648120506</v>
       </c>
       <c r="K114">
-        <v>1009.336648120506</v>
+        <v>7.591705799102783</v>
       </c>
       <c r="L114">
-        <v>7.591705799102783</v>
+        <v>29.175444</v>
       </c>
       <c r="M114">
-        <v>29.175444</v>
+        <v>0.5987621380228931</v>
       </c>
       <c r="N114">
-        <v>0.5987621380228931</v>
+        <v>-0.5563914895057678</v>
       </c>
       <c r="O114">
-        <v>-0.5563914895057678</v>
+        <v>-0.6376034021377563</v>
       </c>
       <c r="P114">
-        <v>-0.6376034021377563</v>
+        <v>0.1107989251613617</v>
       </c>
       <c r="Q114">
-        <v>0.1107989251613617</v>
+        <v>-0.6501486480236054</v>
       </c>
       <c r="R114">
-        <v>-0.6501486480236054</v>
-      </c>
-      <c r="S114">
         <v>-0.4171832442283631</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:18">
       <c r="A115" s="1" t="s">
         <v>131</v>
       </c>
@@ -7183,37 +6841,34 @@
         <v>49.39</v>
       </c>
       <c r="J115">
-        <v>0.1373523385412428</v>
+        <v>4423.715712029465</v>
       </c>
       <c r="K115">
-        <v>4423.715712029465</v>
+        <v>6.514830112457275</v>
       </c>
       <c r="L115">
-        <v>6.514830112457275</v>
+        <v>17.180592</v>
       </c>
       <c r="M115">
-        <v>17.180592</v>
+        <v>0.678227232611526</v>
       </c>
       <c r="N115">
-        <v>0.678227232611526</v>
+        <v>-1.241049468517303</v>
       </c>
       <c r="O115">
-        <v>-1.241049468517303</v>
+        <v>-1.49451539516449</v>
       </c>
       <c r="P115">
-        <v>-1.49451539516449</v>
+        <v>-1.113730895519257</v>
       </c>
       <c r="Q115">
-        <v>-1.113730895519257</v>
+        <v>-1.352075242996216</v>
       </c>
       <c r="R115">
-        <v>-1.352075242996216</v>
-      </c>
-      <c r="S115">
         <v>-1.811240077018738</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:18">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -7236,37 +6891,34 @@
         <v>0.06379896122028202</v>
       </c>
       <c r="J116">
-        <v>0.06379896122028202</v>
+        <v>9550.049131837954</v>
       </c>
       <c r="K116">
-        <v>9550.049131837954</v>
+        <v>7.440438270568848</v>
       </c>
       <c r="L116">
-        <v>7.440438270568848</v>
+        <v>46.65929999999999</v>
       </c>
       <c r="M116">
-        <v>46.65929999999999</v>
+        <v>0.260943596055004</v>
       </c>
       <c r="N116">
-        <v>0.260943596055004</v>
+        <v>0.3199753999710083</v>
       </c>
       <c r="O116">
-        <v>0.3199753999710083</v>
+        <v>0.1119529470801353</v>
       </c>
       <c r="P116">
-        <v>0.1119529470801353</v>
+        <v>0.8608504891395569</v>
       </c>
       <c r="Q116">
-        <v>0.8608504891395569</v>
+        <v>0.1908253163099289</v>
       </c>
       <c r="R116">
-        <v>0.1908253163099289</v>
-      </c>
-      <c r="S116">
         <v>0.05463532209396362</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:18">
       <c r="A117" s="1" t="s">
         <v>133</v>
       </c>
@@ -7295,37 +6947,34 @@
         <v>56.63</v>
       </c>
       <c r="J117">
-        <v>0.05982810637635154</v>
+        <v>2006.964010632949</v>
       </c>
       <c r="K117">
-        <v>2006.964010632949</v>
+        <v>8.194750785827637</v>
       </c>
       <c r="L117">
-        <v>8.194750785827637</v>
+        <v>26.222454</v>
       </c>
       <c r="M117">
-        <v>26.222454</v>
+        <v>0.7694600301934441</v>
       </c>
       <c r="N117">
-        <v>0.7694600301934441</v>
+        <v>-0.7119242906570434</v>
       </c>
       <c r="O117">
-        <v>-0.7119242906570434</v>
+        <v>-0.9073205590248108</v>
       </c>
       <c r="P117">
-        <v>-0.9073205590248108</v>
+        <v>-1.24707852602005</v>
       </c>
       <c r="Q117">
-        <v>-1.24707852602005</v>
+        <v>-0.7884044289588928</v>
       </c>
       <c r="R117">
-        <v>-0.7884044289588928</v>
-      </c>
-      <c r="S117">
         <v>-0.7894878506660461</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:18">
       <c r="A118" s="1" t="s">
         <v>134</v>
       </c>
@@ -7354,37 +7003,34 @@
         <v>100</v>
       </c>
       <c r="J118">
-        <v>0.00938718287598217</v>
+        <v>46332.36124515514</v>
       </c>
       <c r="K118">
-        <v>46332.36124515514</v>
+        <v>10</v>
       </c>
       <c r="L118">
-        <v>10</v>
+        <v>85.388994</v>
       </c>
       <c r="M118">
-        <v>85.388994</v>
+        <v>0.03499231232662407</v>
       </c>
       <c r="N118">
-        <v>0.03499231232662407</v>
+        <v>2.083691763877868</v>
       </c>
       <c r="O118">
-        <v>2.083691763877868</v>
+        <v>1.786545991897583</v>
       </c>
       <c r="P118">
-        <v>1.786545991897583</v>
+        <v>1.086155271530151</v>
       </c>
       <c r="Q118">
-        <v>1.086155271530151</v>
+        <v>1.863628649711609</v>
       </c>
       <c r="R118">
-        <v>1.863628649711609</v>
-      </c>
-      <c r="S118">
         <v>1.767100024223328</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:18">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -7413,37 +7059,34 @@
         <v>95</v>
       </c>
       <c r="J119">
-        <v>0.02723939151263868</v>
+        <v>32908.49133258502</v>
       </c>
       <c r="K119">
-        <v>32908.49133258502</v>
+        <v>8.263897895812988</v>
       </c>
       <c r="L119">
-        <v>8.263897895812988</v>
+        <v>91.92536199999999</v>
       </c>
       <c r="M119">
-        <v>91.92536199999999</v>
+        <v>0.0195940389639688</v>
       </c>
       <c r="N119">
-        <v>0.0195940389639688</v>
+        <v>2.309362030029297</v>
       </c>
       <c r="O119">
-        <v>2.309362030029297</v>
+        <v>1.837026357650757</v>
       </c>
       <c r="P119">
-        <v>1.837026357650757</v>
+        <v>1.379287910461426</v>
       </c>
       <c r="Q119">
-        <v>1.379287910461426</v>
+        <v>1.910410761833191</v>
       </c>
       <c r="R119">
-        <v>1.910410761833191</v>
-      </c>
-      <c r="S119">
         <v>1.883483171463013</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:18">
       <c r="A120" s="1" t="s">
         <v>136</v>
       </c>
@@ -7472,37 +7115,34 @@
         <v>65.09</v>
       </c>
       <c r="J120">
-        <v>0.02807997682539725</v>
+        <v>4166.756268428204</v>
       </c>
       <c r="K120">
-        <v>4166.756268428204</v>
+        <v>8.23891544342041</v>
       </c>
       <c r="L120">
-        <v>8.23891544342041</v>
+        <v>27.059092</v>
       </c>
       <c r="M120">
-        <v>27.059092</v>
+        <v>0.6836903294550044</v>
       </c>
       <c r="N120">
-        <v>0.6836903294550044</v>
+        <v>-0.775048828125</v>
       </c>
       <c r="O120">
-        <v>-0.775048828125</v>
+        <v>-0.8826283097267151</v>
       </c>
       <c r="P120">
-        <v>-0.8826283097267151</v>
+        <v>-0.2816437236964703</v>
       </c>
       <c r="Q120">
-        <v>-0.2816437236964703</v>
+        <v>-0.7345213770866394</v>
       </c>
       <c r="R120">
-        <v>-0.7345213770866394</v>
-      </c>
-      <c r="S120">
         <v>-0.3211884737014771</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:18">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -7531,37 +7171,34 @@
         <v>11.44</v>
       </c>
       <c r="J121">
-        <v>0.03142600532660702</v>
+        <v>813.9070400138709</v>
       </c>
       <c r="K121">
-        <v>813.9070400138709</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>30.680918</v>
       </c>
       <c r="M121">
-        <v>30.680918</v>
+        <v>0.7216320018781576</v>
       </c>
       <c r="N121">
-        <v>0.7216320018781576</v>
+        <v>-0.6480936527252197</v>
       </c>
       <c r="O121">
-        <v>-0.6480936527252197</v>
+        <v>-0.6763215661048889</v>
       </c>
       <c r="P121">
-        <v>-0.6763215661048889</v>
+        <v>-1.136903965473175</v>
       </c>
       <c r="Q121">
-        <v>-1.136903965473175</v>
+        <v>-0.5651528656482696</v>
       </c>
       <c r="R121">
-        <v>-0.5651528656482696</v>
-      </c>
-      <c r="S121">
         <v>-0.584823203086853</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:18">
       <c r="A122" s="1" t="s">
         <v>138</v>
       </c>
@@ -7584,37 +7221,34 @@
         <v>0.02895025932393536</v>
       </c>
       <c r="J122">
-        <v>0.02895025932393536</v>
+        <v>5362.113933479728</v>
       </c>
       <c r="K122">
-        <v>5362.113933479728</v>
+        <v>3.420500993728638</v>
       </c>
       <c r="L122">
-        <v>3.420500993728638</v>
+        <v>25.498672</v>
       </c>
       <c r="M122">
-        <v>25.498672</v>
+        <v>0.8947357379813242</v>
       </c>
       <c r="N122">
-        <v>0.8947357379813242</v>
+        <v>-1.177396631240845</v>
       </c>
       <c r="O122">
-        <v>-1.177396631240845</v>
+        <v>-1.087169432640076</v>
       </c>
       <c r="P122">
-        <v>-1.087169432640076</v>
+        <v>-2.085681247711181</v>
       </c>
       <c r="Q122">
-        <v>-2.085681247711181</v>
+        <v>-1.129746317863464</v>
       </c>
       <c r="R122">
-        <v>-1.129746317863464</v>
-      </c>
-      <c r="S122">
         <v>-0.7194172978401184</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:18">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -7643,37 +7277,34 @@
         <v>96</v>
       </c>
       <c r="J123">
-        <v>0.02729046781781392</v>
+        <v>62438.56206737715</v>
       </c>
       <c r="K123">
-        <v>62438.56206737715</v>
+        <v>9.528059005737305</v>
       </c>
       <c r="L123">
-        <v>9.528059005737305</v>
+        <v>86.57970800000001</v>
       </c>
       <c r="M123">
-        <v>86.57970800000001</v>
+        <v>0.0179926632450741</v>
       </c>
       <c r="N123">
-        <v>0.0179926632450741</v>
+        <v>2.202397441864014</v>
       </c>
       <c r="O123">
-        <v>2.202397441864014</v>
+        <v>1.867807769775391</v>
       </c>
       <c r="P123">
-        <v>1.867807769775391</v>
+        <v>1.2939617395401</v>
       </c>
       <c r="Q123">
-        <v>1.2939617395401</v>
+        <v>1.947756791114807</v>
       </c>
       <c r="R123">
-        <v>1.947756791114807</v>
-      </c>
-      <c r="S123">
         <v>1.596633410453796</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:18">
       <c r="A124" s="1" t="s">
         <v>140</v>
       </c>
@@ -7696,37 +7327,34 @@
         <v>-0.00907700696841629</v>
       </c>
       <c r="J124">
-        <v>-0.00907700696841629</v>
+        <v>42914.56897238904</v>
       </c>
       <c r="K124">
-        <v>42914.56897238904</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>48.069152</v>
       </c>
       <c r="M124">
-        <v>48.069152</v>
+        <v>0.2173007342073774</v>
       </c>
       <c r="N124">
-        <v>0.2173007342073774</v>
+        <v>0.2230172097682953</v>
       </c>
       <c r="O124">
-        <v>0.2230172097682953</v>
+        <v>0.2747066736221314</v>
       </c>
       <c r="P124">
-        <v>0.2747066736221314</v>
+        <v>0.5358393609523773</v>
       </c>
       <c r="Q124">
-        <v>0.5358393609523773</v>
+        <v>0.5024978160858155</v>
       </c>
       <c r="R124">
-        <v>0.5024978160858155</v>
-      </c>
-      <c r="S124">
         <v>0.4815934956073761</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:18">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -7755,37 +7383,34 @@
         <v>33.01</v>
       </c>
       <c r="J125">
-        <v>0.0373173714687897</v>
+        <v>4377.91266375339</v>
       </c>
       <c r="K125">
-        <v>4377.91266375339</v>
+        <v>5.832146167755127</v>
       </c>
       <c r="L125">
-        <v>5.832146167755127</v>
+        <v>26.335904</v>
       </c>
       <c r="M125">
-        <v>26.335904</v>
+        <v>0.8329370093248454</v>
       </c>
       <c r="N125">
-        <v>0.8329370093248454</v>
+        <v>-1.003360676765442</v>
       </c>
       <c r="O125">
-        <v>-1.003360676765442</v>
+        <v>-0.7816994428634644</v>
       </c>
       <c r="P125">
-        <v>-0.7816994428634644</v>
+        <v>-2.633510684967041</v>
       </c>
       <c r="Q125">
-        <v>-2.633510684967041</v>
+        <v>-0.8283932685852051</v>
       </c>
       <c r="R125">
-        <v>-0.8283932685852051</v>
-      </c>
-      <c r="S125">
         <v>-0.666235601902008</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:18">
       <c r="A126" s="1" t="s">
         <v>142</v>
       </c>
@@ -7814,37 +7439,34 @@
         <v>65.77</v>
       </c>
       <c r="J126">
-        <v>0.07232491426913752</v>
+        <v>17651.58623856027</v>
       </c>
       <c r="K126">
-        <v>17651.58623856027</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>35.732398</v>
       </c>
       <c r="M126">
-        <v>35.732398</v>
+        <v>0.4740184402389776</v>
       </c>
       <c r="N126">
-        <v>0.4740184402389776</v>
+        <v>-0.3362467885017395</v>
       </c>
       <c r="O126">
-        <v>-0.3362467885017395</v>
+        <v>0.2117584779858589</v>
       </c>
       <c r="P126">
-        <v>0.2117584779858589</v>
+        <v>-0.05119049325585365</v>
       </c>
       <c r="Q126">
-        <v>-0.05119049325585365</v>
+        <v>-0.1044569816440344</v>
       </c>
       <c r="R126">
-        <v>-0.1044569816440344</v>
-      </c>
-      <c r="S126">
         <v>0.3836642682552338</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:18">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -7873,37 +7495,34 @@
         <v>67.31999999999999</v>
       </c>
       <c r="J127">
-        <v>0.06996243404834286</v>
+        <v>7606.381621825654</v>
       </c>
       <c r="K127">
-        <v>7606.381621825654</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>23.435342</v>
       </c>
       <c r="M127">
-        <v>23.435342</v>
+        <v>0.7149260833772264</v>
       </c>
       <c r="N127">
-        <v>0.7149260833772264</v>
+        <v>-0.8619810581207276</v>
       </c>
       <c r="O127">
-        <v>-0.8619810581207276</v>
+        <v>-0.8915361523628235</v>
       </c>
       <c r="P127">
-        <v>-0.8915361523628235</v>
+        <v>-0.6447700127959252</v>
       </c>
       <c r="Q127">
-        <v>-0.6447700127959252</v>
+        <v>-0.8055332064628601</v>
       </c>
       <c r="R127">
-        <v>-0.8055332064628601</v>
-      </c>
-      <c r="S127">
         <v>-0.3283694922924042</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:18">
       <c r="A128" s="1" t="s">
         <v>144</v>
       </c>
@@ -7932,37 +7551,34 @@
         <v>85.90000000000001</v>
       </c>
       <c r="J128">
-        <v>0.05232604352813182</v>
+        <v>10494.82371560991</v>
       </c>
       <c r="K128">
-        <v>10494.82371560991</v>
+        <v>7.21808910369873</v>
       </c>
       <c r="L128">
-        <v>7.21808910369873</v>
+        <v>36.571214</v>
       </c>
       <c r="M128">
-        <v>36.571214</v>
+        <v>0.4830307128901152</v>
       </c>
       <c r="N128">
-        <v>0.4830307128901152</v>
+        <v>-0.3606045722961426</v>
       </c>
       <c r="O128">
-        <v>-0.3606045722961426</v>
+        <v>-0.1749648451805115</v>
       </c>
       <c r="P128">
-        <v>-0.1749648451805115</v>
+        <v>-0.8048853039741516</v>
       </c>
       <c r="Q128">
-        <v>-0.8048853039741516</v>
+        <v>-0.5601706504821777</v>
       </c>
       <c r="R128">
-        <v>-0.5601706504821777</v>
-      </c>
-      <c r="S128">
         <v>0.4771417737007141</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:18">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -7991,37 +7607,34 @@
         <v>82.52</v>
       </c>
       <c r="J129">
-        <v>0.05874176185343658</v>
+        <v>6056.557802322526</v>
       </c>
       <c r="K129">
-        <v>6056.557802322526</v>
+        <v>7.277636528015137</v>
       </c>
       <c r="L129">
-        <v>7.277636528015137</v>
+        <v>31.688598</v>
       </c>
       <c r="M129">
-        <v>31.688598</v>
+        <v>0.6495901147907394</v>
       </c>
       <c r="N129">
-        <v>0.6495901147907394</v>
+        <v>-0.5616978466510772</v>
       </c>
       <c r="O129">
-        <v>-0.5616978466510772</v>
+        <v>0.1023128852481023</v>
       </c>
       <c r="P129">
-        <v>0.1023128852481023</v>
+        <v>-1.205851125717163</v>
       </c>
       <c r="Q129">
-        <v>-1.205851125717163</v>
+        <v>-0.4614998936653137</v>
       </c>
       <c r="R129">
-        <v>-0.4614998936653137</v>
-      </c>
-      <c r="S129">
         <v>-0.1262132219970226</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:18">
       <c r="A130" s="1" t="s">
         <v>146</v>
       </c>
@@ -8050,37 +7663,34 @@
         <v>94.56</v>
       </c>
       <c r="J130">
-        <v>0.0507353622817841</v>
+        <v>23351.59374618954</v>
       </c>
       <c r="K130">
-        <v>23351.59374618954</v>
+        <v>10</v>
       </c>
       <c r="L130">
-        <v>10</v>
+        <v>57.364836</v>
       </c>
       <c r="M130">
-        <v>57.364836</v>
+        <v>0.1822028816366784</v>
       </c>
       <c r="N130">
-        <v>0.1822028816366784</v>
+        <v>0.5897000432014465</v>
       </c>
       <c r="O130">
-        <v>0.5897000432014465</v>
+        <v>0.6974453091621399</v>
       </c>
       <c r="P130">
-        <v>0.6974453091621399</v>
+        <v>0.9910334944725037</v>
       </c>
       <c r="Q130">
-        <v>0.9910334944725037</v>
+        <v>0.778049373626709</v>
       </c>
       <c r="R130">
-        <v>0.778049373626709</v>
-      </c>
-      <c r="S130">
         <v>0.9941902041435242</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:18">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -8109,37 +7719,34 @@
         <v>100</v>
       </c>
       <c r="J131">
-        <v>0.0107723251224584</v>
+        <v>27546.12013258055</v>
       </c>
       <c r="K131">
-        <v>27546.12013258055</v>
+        <v>10</v>
       </c>
       <c r="L131">
-        <v>10</v>
+        <v>61.795218</v>
       </c>
       <c r="M131">
-        <v>61.795218</v>
+        <v>0.1304233644420778</v>
       </c>
       <c r="N131">
-        <v>0.1304233644420778</v>
+        <v>1.012335407733917</v>
       </c>
       <c r="O131">
-        <v>1.012335407733917</v>
+        <v>1.042355918884277</v>
       </c>
       <c r="P131">
-        <v>1.042355918884277</v>
+        <v>0.7579473376274108</v>
       </c>
       <c r="Q131">
-        <v>0.7579473376274108</v>
+        <v>1.068457722663879</v>
       </c>
       <c r="R131">
-        <v>1.068457722663879</v>
-      </c>
-      <c r="S131">
         <v>0.7453725099563598</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:18">
       <c r="A132" s="1" t="s">
         <v>148</v>
       </c>
@@ -8162,37 +7769,34 @@
         <v>0.07612680432875726</v>
       </c>
       <c r="J132">
-        <v>0.07612680432875726</v>
+        <v>147748.5772765868</v>
       </c>
       <c r="K132">
-        <v>147748.5772765868</v>
+        <v>7.069974422454834</v>
       </c>
       <c r="L132">
-        <v>7.069974422454834</v>
+        <v>70.710538</v>
       </c>
       <c r="M132">
-        <v>70.710538</v>
+        <v>0.4736687746497302</v>
       </c>
       <c r="N132">
-        <v>0.4736687746497302</v>
+        <v>1.114979243278504</v>
       </c>
       <c r="O132">
-        <v>1.114979243278504</v>
+        <v>0.9077445030212402</v>
       </c>
       <c r="P132">
-        <v>0.9077445030212402</v>
+        <v>1.148438000679016</v>
       </c>
       <c r="Q132">
-        <v>1.148438000679016</v>
+        <v>0.8780634880065918</v>
       </c>
       <c r="R132">
-        <v>0.8780634880065918</v>
-      </c>
-      <c r="S132">
         <v>0.6441281795501709</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:18">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -8221,37 +7825,34 @@
         <v>97</v>
       </c>
       <c r="J133">
-        <v>0.02918435782525486</v>
+        <v>33428.25188766127</v>
       </c>
       <c r="K133">
-        <v>33428.25188766127</v>
+        <v>8.969557762145996</v>
       </c>
       <c r="L133">
-        <v>8.969557762145996</v>
+        <v>54.712788</v>
       </c>
       <c r="M133">
-        <v>54.712788</v>
+        <v>0.1774429992430908</v>
       </c>
       <c r="N133">
-        <v>0.1774429992430908</v>
+        <v>0.5389921844005585</v>
       </c>
       <c r="O133">
-        <v>0.5389921844005585</v>
+        <v>1.189412808418274</v>
       </c>
       <c r="P133">
-        <v>1.189412808418274</v>
+        <v>0.2785284429788589</v>
       </c>
       <c r="Q133">
-        <v>0.2785284429788589</v>
+        <v>0.9922814607620239</v>
       </c>
       <c r="R133">
-        <v>0.9922814607620239</v>
-      </c>
-      <c r="S133">
         <v>0.9839103221893311</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:18">
       <c r="A134" s="1" t="s">
         <v>150</v>
       </c>
@@ -8274,16 +7875,13 @@
         <v>0.07684929472834794</v>
       </c>
       <c r="J134">
-        <v>0.07684929472834794</v>
+        <v>4373.016191312561</v>
       </c>
       <c r="K134">
-        <v>4373.016191312561</v>
-      </c>
-      <c r="L134">
         <v>9.672650337219238</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:18">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -8312,37 +7910,34 @@
         <v>93.13</v>
       </c>
       <c r="J135">
-        <v>0.05367355633295454</v>
+        <v>18874.12058848061</v>
       </c>
       <c r="K135">
-        <v>18874.12058848061</v>
+        <v>10</v>
       </c>
       <c r="L135">
-        <v>10</v>
+        <v>40.624292</v>
       </c>
       <c r="M135">
-        <v>40.624292</v>
+        <v>0.5607048238219006</v>
       </c>
       <c r="N135">
-        <v>0.5607048238219006</v>
+        <v>-0.200754377245903</v>
       </c>
       <c r="O135">
-        <v>-0.200754377245903</v>
+        <v>-0.2013756394386292</v>
       </c>
       <c r="P135">
-        <v>-0.2013756394386292</v>
+        <v>0.1540603645145893</v>
       </c>
       <c r="Q135">
-        <v>0.1540603645145893</v>
+        <v>0.08753514811396598</v>
       </c>
       <c r="R135">
-        <v>0.08753514811396598</v>
-      </c>
-      <c r="S135">
         <v>0.6097819089889527</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:18">
       <c r="A136" s="1" t="s">
         <v>152</v>
       </c>
@@ -8371,37 +7966,34 @@
         <v>84.45999999999999</v>
       </c>
       <c r="J136">
-        <v>0.06190077450513263</v>
+        <v>22884.19891896011</v>
       </c>
       <c r="K136">
-        <v>22884.19891896011</v>
+        <v>5.159219264984131</v>
       </c>
       <c r="L136">
-        <v>5.159219264984131</v>
+        <v>25.697514</v>
       </c>
       <c r="M136">
-        <v>25.697514</v>
+        <v>0.8260322146439625</v>
       </c>
       <c r="N136">
-        <v>0.8260322146439625</v>
+        <v>-1.026095759868622</v>
       </c>
       <c r="O136">
-        <v>-1.026095759868622</v>
+        <v>-0.3648436695337295</v>
       </c>
       <c r="P136">
-        <v>-0.3648436695337295</v>
+        <v>-0.8850289225578308</v>
       </c>
       <c r="Q136">
-        <v>-0.8850289225578308</v>
+        <v>-0.7669550776481628</v>
       </c>
       <c r="R136">
-        <v>-0.7669550776481628</v>
-      </c>
-      <c r="S136">
         <v>-0.3561799645423889</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:18">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -8424,37 +8016,34 @@
         <v>0.0489234221167227</v>
       </c>
       <c r="J137">
-        <v>0.0489234221167227</v>
+        <v>1438.8551764407</v>
       </c>
       <c r="K137">
-        <v>1438.8551764407</v>
+        <v>5.666972637176514</v>
       </c>
       <c r="L137">
-        <v>5.666972637176514</v>
+        <v>48.966838</v>
       </c>
       <c r="M137">
-        <v>48.966838</v>
+        <v>0.4971881835226336</v>
       </c>
       <c r="N137">
-        <v>0.4971881835226336</v>
+        <v>0.5319281935691833</v>
       </c>
       <c r="O137">
-        <v>0.5319281935691833</v>
+        <v>-0.007549973204731941</v>
       </c>
       <c r="P137">
-        <v>-0.007549973204731941</v>
+        <v>-0.2208496212959289</v>
       </c>
       <c r="Q137">
-        <v>-0.2208496212959289</v>
+        <v>-0.2028486184775829</v>
       </c>
       <c r="R137">
-        <v>-0.2028486184775829</v>
-      </c>
-      <c r="S137">
         <v>-0.03755336236208677</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:18">
       <c r="A138" s="1" t="s">
         <v>154</v>
       </c>
@@ -8477,31 +8066,28 @@
         <v>0.03412639847770682</v>
       </c>
       <c r="J138">
-        <v>0.03412639847770682</v>
+        <v>21155.61182876812</v>
       </c>
       <c r="K138">
-        <v>21155.61182876812</v>
-      </c>
-      <c r="L138">
         <v>0</v>
       </c>
+      <c r="N138">
+        <v>0.831150421500206</v>
+      </c>
       <c r="O138">
-        <v>0.831150421500206</v>
+        <v>0.626992629468441</v>
       </c>
       <c r="P138">
-        <v>0.626992629468441</v>
+        <v>0.9001680135726928</v>
       </c>
       <c r="Q138">
-        <v>0.9001680135726928</v>
+        <v>0.5847080528736115</v>
       </c>
       <c r="R138">
-        <v>0.5847080528736115</v>
-      </c>
-      <c r="S138">
         <v>0.3937981694936752</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:18">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -8524,34 +8110,31 @@
         <v>0.00174382041776211</v>
       </c>
       <c r="J139">
-        <v>0.00174382041776211</v>
+        <v>10143.40765400514</v>
       </c>
       <c r="K139">
-        <v>10143.40765400514</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
         <v>70.795485</v>
       </c>
+      <c r="N139">
+        <v>0.9757718920707703</v>
+      </c>
       <c r="O139">
-        <v>0.9757718920707703</v>
+        <v>0.6018257685005665</v>
       </c>
       <c r="P139">
-        <v>0.6018257685005665</v>
+        <v>0.840573537349701</v>
       </c>
       <c r="Q139">
-        <v>0.840573537349701</v>
+        <v>0.7124762058258056</v>
       </c>
       <c r="R139">
-        <v>0.7124762058258056</v>
-      </c>
-      <c r="S139">
         <v>0.3865017294883728</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:18">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -8574,37 +8157,34 @@
         <v>0.07382736191533575</v>
       </c>
       <c r="J140">
-        <v>0.07382736191533575</v>
+        <v>2939.839360051604</v>
       </c>
       <c r="K140">
-        <v>2939.839360051604</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>37.172658</v>
       </c>
       <c r="M140">
-        <v>37.172658</v>
+        <v>0.3014854976587416</v>
       </c>
       <c r="N140">
-        <v>0.3014854976587416</v>
+        <v>-0.1575695953564718</v>
       </c>
       <c r="O140">
-        <v>-0.1575695953564718</v>
+        <v>-0.7436547040939331</v>
       </c>
       <c r="P140">
-        <v>-0.7436547040939331</v>
+        <v>0.08652568031102419</v>
       </c>
       <c r="Q140">
-        <v>0.08652568031102419</v>
+        <v>-0.7267341136932373</v>
       </c>
       <c r="R140">
-        <v>-0.7267341136932373</v>
-      </c>
-      <c r="S140">
         <v>-0.7900243282318116</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:18">
       <c r="A141" s="1" t="s">
         <v>157</v>
       </c>
@@ -8627,37 +8207,34 @@
         <v>0.07863136212691269</v>
       </c>
       <c r="J141">
-        <v>0.07863136212691269</v>
+        <v>48421.1296389319</v>
       </c>
       <c r="K141">
-        <v>48421.1296389319</v>
+        <v>5.825255870819092</v>
       </c>
       <c r="L141">
-        <v>5.825255870819092</v>
+        <v>45.973308</v>
       </c>
       <c r="M141">
-        <v>45.973308</v>
+        <v>0.4535771183776863</v>
       </c>
       <c r="N141">
-        <v>0.4535771183776863</v>
+        <v>-0.04724557064473629</v>
       </c>
       <c r="O141">
-        <v>-0.04724557064473629</v>
+        <v>0.001184874959290028</v>
       </c>
       <c r="P141">
-        <v>0.001184874959290028</v>
+        <v>-0.3779687285423279</v>
       </c>
       <c r="Q141">
-        <v>-0.3779687285423279</v>
+        <v>0.1289704881608486</v>
       </c>
       <c r="R141">
-        <v>0.1289704881608486</v>
-      </c>
-      <c r="S141">
         <v>0.07433516853488982</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:18">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -8686,37 +8263,34 @@
         <v>30.27</v>
       </c>
       <c r="J142">
-        <v>0.01469605907491764</v>
+        <v>2141.319186601957</v>
       </c>
       <c r="K142">
-        <v>2141.319186601957</v>
+        <v>6.902360916137695</v>
       </c>
       <c r="L142">
-        <v>6.902360916137695</v>
+        <v>35.541058</v>
       </c>
       <c r="M142">
-        <v>35.541058</v>
+        <v>0.4224461256698824</v>
       </c>
       <c r="N142">
-        <v>0.4224461256698824</v>
+        <v>-0.3044290646910667</v>
       </c>
       <c r="O142">
-        <v>-0.3044290646910667</v>
+        <v>-0.4729864895343781</v>
       </c>
       <c r="P142">
-        <v>-0.4729864895343781</v>
+        <v>-0.2131590366363526</v>
       </c>
       <c r="Q142">
-        <v>-0.2131590366363526</v>
+        <v>-0.2930050626397133</v>
       </c>
       <c r="R142">
-        <v>-0.2930050626397133</v>
-      </c>
-      <c r="S142">
         <v>-0.168268346786499</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:18">
       <c r="A143" s="1" t="s">
         <v>159</v>
       </c>
@@ -8745,37 +8319,34 @@
         <v>89.81</v>
       </c>
       <c r="J143">
-        <v>0.02842907876522456</v>
+        <v>12699.48921794355</v>
       </c>
       <c r="K143">
-        <v>12699.48921794355</v>
+        <v>9.762622833251953</v>
       </c>
       <c r="L143">
-        <v>9.762622833251953</v>
+        <v>38.02559</v>
       </c>
       <c r="M143">
-        <v>38.02559</v>
+        <v>0.6197457474518754</v>
       </c>
       <c r="N143">
-        <v>0.6197457474518754</v>
+        <v>-0.2851403445005417</v>
       </c>
       <c r="O143">
-        <v>-0.2851403445005417</v>
+        <v>-0.04696067795157433</v>
       </c>
       <c r="P143">
-        <v>-0.04696067795157433</v>
+        <v>-0.1626901015639305</v>
       </c>
       <c r="Q143">
-        <v>-0.1626901015639305</v>
+        <v>-0.2989715129137039</v>
       </c>
       <c r="R143">
-        <v>-0.2989715129137039</v>
-      </c>
-      <c r="S143">
         <v>0.003916150704026222</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:18">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -8798,37 +8369,34 @@
         <v>0.05807851234042958</v>
       </c>
       <c r="J144">
-        <v>0.05807851234042958</v>
+        <v>23216.69727317646</v>
       </c>
       <c r="K144">
-        <v>23216.69727317646</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>51.44342</v>
       </c>
       <c r="M144">
-        <v>51.44342</v>
+        <v>0.2396619638806116</v>
       </c>
       <c r="N144">
-        <v>0.2396619638806116</v>
+        <v>0.4339112460613251</v>
       </c>
       <c r="O144">
-        <v>0.4339112460613251</v>
+        <v>0.3233193755149841</v>
       </c>
       <c r="P144">
-        <v>0.3233193755149841</v>
+        <v>0.7452016055583954</v>
       </c>
       <c r="Q144">
-        <v>0.7452016055583954</v>
+        <v>0.04071155097335577</v>
       </c>
       <c r="R144">
-        <v>0.04071155097335577</v>
-      </c>
-      <c r="S144">
         <v>-0.3547158658504486</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:18">
       <c r="A145" s="1" t="s">
         <v>161</v>
       </c>
@@ -8857,37 +8425,34 @@
         <v>36.97</v>
       </c>
       <c r="J145">
-        <v>0.04286098482956302</v>
+        <v>1454.363495207124</v>
       </c>
       <c r="K145">
-        <v>1454.363495207124</v>
+        <v>5.784702301025391</v>
       </c>
       <c r="L145">
-        <v>5.784702301025391</v>
+        <v>28.121818</v>
       </c>
       <c r="M145">
-        <v>28.121818</v>
+        <v>0.7741056423309518</v>
       </c>
       <c r="N145">
-        <v>0.7741056423309518</v>
+        <v>-0.8830591201782226</v>
       </c>
       <c r="O145">
-        <v>-0.8830591201782226</v>
+        <v>-1.220551586151123</v>
       </c>
       <c r="P145">
-        <v>-1.220551586151123</v>
+        <v>-0.1927586928009987</v>
       </c>
       <c r="Q145">
-        <v>-0.1927586928009987</v>
+        <v>-0.8844463586807251</v>
       </c>
       <c r="R145">
-        <v>-0.8844463586807251</v>
-      </c>
-      <c r="S145">
         <v>-0.7320997238159179</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:18">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -8910,37 +8475,34 @@
         <v>0.04047494203454747</v>
       </c>
       <c r="J146">
-        <v>0.04047494203454747</v>
+        <v>71775.71984731535</v>
       </c>
       <c r="K146">
-        <v>71775.71984731535</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>88.33367799999999</v>
       </c>
       <c r="M146">
-        <v>88.33367799999999</v>
+        <v>0.0299936310497285</v>
       </c>
       <c r="N146">
-        <v>0.0299936310497285</v>
+        <v>2.112543106079102</v>
       </c>
       <c r="O146">
-        <v>2.112543106079102</v>
+        <v>2.166771221160888</v>
       </c>
       <c r="P146">
-        <v>2.166771221160888</v>
+        <v>1.258692193031311</v>
       </c>
       <c r="Q146">
-        <v>1.258692193031311</v>
+        <v>1.711483764648438</v>
       </c>
       <c r="R146">
-        <v>1.711483764648438</v>
-      </c>
-      <c r="S146">
         <v>1.949077725410461</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:18">
       <c r="A147" s="1" t="s">
         <v>163</v>
       </c>
@@ -8963,13 +8525,10 @@
         <v>-0.02104771181143228</v>
       </c>
       <c r="J147">
-        <v>-0.02104771181143228</v>
-      </c>
-      <c r="K147">
         <v>35568.02839007451</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:18">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -8992,37 +8551,34 @@
         <v>0.03617785951873289</v>
       </c>
       <c r="J148">
-        <v>0.03617785951873289</v>
+        <v>26659.42084528604</v>
       </c>
       <c r="K148">
-        <v>26659.42084528604</v>
+        <v>10</v>
       </c>
       <c r="L148">
-        <v>10</v>
+        <v>45.143234</v>
       </c>
       <c r="M148">
-        <v>45.143234</v>
+        <v>0.3798674563062328</v>
       </c>
       <c r="N148">
-        <v>0.3798674563062328</v>
+        <v>0.1824501484632492</v>
       </c>
       <c r="O148">
-        <v>0.1824501484632492</v>
+        <v>0.8342838883399963</v>
       </c>
       <c r="P148">
-        <v>0.8342838883399963</v>
+        <v>1.055022883415222</v>
       </c>
       <c r="Q148">
-        <v>1.055022883415222</v>
+        <v>0.5290086030960083</v>
       </c>
       <c r="R148">
-        <v>0.5290086030960083</v>
-      </c>
-      <c r="S148">
         <v>0.9753423213958741</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:18">
       <c r="A149" s="1" t="s">
         <v>165</v>
       </c>
@@ -9045,37 +8601,34 @@
         <v>0.01510923096348622</v>
       </c>
       <c r="J149">
-        <v>0.01510923096348622</v>
+        <v>29005.04278258638</v>
       </c>
       <c r="K149">
-        <v>29005.04278258638</v>
+        <v>10</v>
       </c>
       <c r="L149">
-        <v>10</v>
+        <v>59.74097400000001</v>
       </c>
       <c r="M149">
-        <v>59.74097400000001</v>
+        <v>0.2983387336833174</v>
       </c>
       <c r="N149">
-        <v>0.2983387336833174</v>
+        <v>0.8335038661956787</v>
       </c>
       <c r="O149">
-        <v>0.8335038661956787</v>
+        <v>1.013184976577759</v>
       </c>
       <c r="P149">
-        <v>1.013184976577759</v>
+        <v>0.9237708568572998</v>
       </c>
       <c r="Q149">
-        <v>0.9237708568572998</v>
+        <v>1.015710258483887</v>
       </c>
       <c r="R149">
-        <v>1.015710258483887</v>
-      </c>
-      <c r="S149">
         <v>0.6761879205703736</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:18">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -9104,37 +8657,34 @@
         <v>80.69</v>
       </c>
       <c r="J150">
-        <v>0.01699511147302291</v>
+        <v>11951.52456801466</v>
       </c>
       <c r="K150">
-        <v>11951.52456801466</v>
+        <v>6.168321132659912</v>
       </c>
       <c r="L150">
-        <v>6.168321132659912</v>
+        <v>42.960554</v>
       </c>
       <c r="M150">
-        <v>42.960554</v>
+        <v>0.3483828674739798</v>
       </c>
       <c r="N150">
-        <v>0.3483828674739798</v>
+        <v>-0.01079259887337685</v>
       </c>
       <c r="O150">
-        <v>-0.01079259887337685</v>
+        <v>0.3845009982585907</v>
       </c>
       <c r="P150">
-        <v>0.3845009982585907</v>
+        <v>-0.04469312652945519</v>
       </c>
       <c r="Q150">
-        <v>-0.04469312652945519</v>
+        <v>0.1489994078874588</v>
       </c>
       <c r="R150">
-        <v>0.1489994078874588</v>
-      </c>
-      <c r="S150">
         <v>0.3719199895858765</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:18">
       <c r="A151" s="1" t="s">
         <v>167</v>
       </c>
@@ -9163,37 +8713,34 @@
         <v>100</v>
       </c>
       <c r="J151">
-        <v>-0.001749740674924349</v>
+        <v>33143.49792457453</v>
       </c>
       <c r="K151">
-        <v>33143.49792457453</v>
+        <v>10</v>
       </c>
       <c r="L151">
-        <v>10</v>
+        <v>61.4592</v>
       </c>
       <c r="M151">
-        <v>61.4592</v>
+        <v>0.0561101362865593</v>
       </c>
       <c r="N151">
-        <v>0.0561101362865593</v>
+        <v>0.9699276328086853</v>
       </c>
       <c r="O151">
-        <v>0.9699276328086853</v>
+        <v>1.091388881206512</v>
       </c>
       <c r="P151">
-        <v>1.091388881206512</v>
+        <v>-0.01426322963088751</v>
       </c>
       <c r="Q151">
-        <v>-0.01426322963088751</v>
+        <v>1.084996700286865</v>
       </c>
       <c r="R151">
-        <v>1.084996700286865</v>
-      </c>
-      <c r="S151">
         <v>0.9737396359443664</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:18">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -9222,37 +8769,34 @@
         <v>96.36</v>
       </c>
       <c r="J152">
-        <v>0.08204854571949496</v>
+        <v>8926.550216758875</v>
       </c>
       <c r="K152">
-        <v>8926.550216758875</v>
+        <v>7.92165470123291</v>
       </c>
       <c r="L152">
-        <v>7.92165470123291</v>
+        <v>35.990352</v>
       </c>
       <c r="M152">
-        <v>35.990352</v>
+        <v>0.5959767153411555</v>
       </c>
       <c r="N152">
-        <v>0.5959767153411555</v>
+        <v>-0.3220258474349976</v>
       </c>
       <c r="O152">
-        <v>-0.3220258474349976</v>
+        <v>-0.1259913183748722</v>
       </c>
       <c r="P152">
-        <v>-0.1259913183748722</v>
+        <v>-0.6656313955783844</v>
       </c>
       <c r="Q152">
-        <v>-0.6656313955783844</v>
+        <v>-0.1626420125365257</v>
       </c>
       <c r="R152">
-        <v>-0.1626420125365257</v>
-      </c>
-      <c r="S152">
         <v>-0.1397291705012322</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:18">
       <c r="A153" s="1" t="s">
         <v>169</v>
       </c>
@@ -9275,34 +8819,31 @@
         <v>0.003791840715894646</v>
       </c>
       <c r="J153">
-        <v>0.003791840715894646</v>
+        <v>9399.653358433347</v>
       </c>
       <c r="K153">
-        <v>9399.653358433347</v>
+        <v>0</v>
       </c>
       <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
         <v>60.902895</v>
       </c>
+      <c r="N153">
+        <v>0.9065065026283264</v>
+      </c>
       <c r="O153">
-        <v>0.9065065026283264</v>
+        <v>0.6677349388599396</v>
       </c>
       <c r="P153">
-        <v>0.6677349388599396</v>
+        <v>0.8476091742515564</v>
       </c>
       <c r="Q153">
-        <v>0.8476091742515564</v>
+        <v>0.828277838230133</v>
       </c>
       <c r="R153">
-        <v>0.828277838230133</v>
-      </c>
-      <c r="S153">
         <v>0.3924583792686462</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:18">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -9325,13 +8866,10 @@
         <v>0.02673605499601994</v>
       </c>
       <c r="J154">
-        <v>0.02673605499601994</v>
-      </c>
-      <c r="K154">
         <v>4325.539163000061</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:18">
       <c r="A155" s="1" t="s">
         <v>171</v>
       </c>
@@ -9360,37 +8898,34 @@
         <v>37.52</v>
       </c>
       <c r="J155">
-        <v>0.04930879442647538</v>
+        <v>3618.854383675815</v>
       </c>
       <c r="K155">
-        <v>3618.854383675815</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>13.327516</v>
       </c>
       <c r="M155">
-        <v>13.327516</v>
+        <v>0.7643690481806046</v>
       </c>
       <c r="N155">
-        <v>0.7643690481806046</v>
+        <v>-1.353587794303894</v>
       </c>
       <c r="O155">
-        <v>-1.353587794303894</v>
+        <v>-1.431516599655151</v>
       </c>
       <c r="P155">
-        <v>-1.431516599655151</v>
+        <v>-2.400970506668091</v>
       </c>
       <c r="Q155">
-        <v>-2.400970506668091</v>
+        <v>-1.250555014610291</v>
       </c>
       <c r="R155">
-        <v>-1.250555014610291</v>
-      </c>
-      <c r="S155">
         <v>-1.409593772888184</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:18">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -9413,37 +8948,34 @@
         <v>0.04508596508246297</v>
       </c>
       <c r="J156">
-        <v>0.04508596508246297</v>
+        <v>15043.80369198533</v>
       </c>
       <c r="K156">
-        <v>15043.80369198533</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>34.8215</v>
       </c>
       <c r="M156">
-        <v>34.8215</v>
+        <v>0.3306027167089616</v>
       </c>
       <c r="N156">
-        <v>0.3306027167089616</v>
+        <v>-0.3319735765457154</v>
       </c>
       <c r="O156">
-        <v>-0.3319735765457154</v>
+        <v>-0.0847311245277524</v>
       </c>
       <c r="P156">
-        <v>-0.0847311245277524</v>
+        <v>0.1327652528882027</v>
       </c>
       <c r="Q156">
-        <v>0.1327652528882027</v>
+        <v>-0.06704308837652206</v>
       </c>
       <c r="R156">
-        <v>-0.06704308837652206</v>
-      </c>
-      <c r="S156">
         <v>-0.5595740437507629</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:18">
       <c r="A157" s="1" t="s">
         <v>173</v>
       </c>
@@ -9472,37 +9004,34 @@
         <v>51.85</v>
       </c>
       <c r="J157">
-        <v>0.009577840648311575</v>
+        <v>7995.700159783073</v>
       </c>
       <c r="K157">
-        <v>7995.700159783073</v>
+        <v>0</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>36.363548</v>
       </c>
       <c r="M157">
-        <v>36.363548</v>
+        <v>0.6117200936791051</v>
       </c>
       <c r="N157">
-        <v>0.6117200936791051</v>
+        <v>-0.3677953839302063</v>
       </c>
       <c r="O157">
-        <v>-0.3677953839302063</v>
+        <v>-0.5530168831348419</v>
       </c>
       <c r="P157">
-        <v>-0.5530168831348419</v>
+        <v>-0.3791943490505219</v>
       </c>
       <c r="Q157">
-        <v>-0.3791943490505219</v>
+        <v>-0.4579429566860199</v>
       </c>
       <c r="R157">
-        <v>-0.4579429566860199</v>
-      </c>
-      <c r="S157">
         <v>-0.5212796032428741</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:18">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -9531,37 +9060,34 @@
         <v>93</v>
       </c>
       <c r="J158">
-        <v>0.02066828149389419</v>
+        <v>43622.21817451052</v>
       </c>
       <c r="K158">
-        <v>43622.21817451052</v>
+        <v>9.887359619140625</v>
       </c>
       <c r="L158">
-        <v>9.887359619140625</v>
+        <v>89.796976</v>
       </c>
       <c r="M158">
-        <v>89.796976</v>
+        <v>0.01128705596767188</v>
       </c>
       <c r="N158">
-        <v>0.01128705596767188</v>
+        <v>2.245881795883179</v>
       </c>
       <c r="O158">
-        <v>2.245881795883179</v>
+        <v>1.927840375900268</v>
       </c>
       <c r="P158">
-        <v>1.927840375900268</v>
+        <v>1.137729716300964</v>
       </c>
       <c r="Q158">
-        <v>1.137729716300964</v>
+        <v>1.962522721290588</v>
       </c>
       <c r="R158">
-        <v>1.962522721290588</v>
-      </c>
-      <c r="S158">
         <v>1.836443948745728</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:18">
       <c r="A159" s="1" t="s">
         <v>175</v>
       </c>
@@ -9590,37 +9116,34 @@
         <v>93.70999999999999</v>
       </c>
       <c r="J159">
-        <v>0.0252660970530318</v>
+        <v>56251.24256688447</v>
       </c>
       <c r="K159">
-        <v>56251.24256688447</v>
+        <v>9.275995254516602</v>
       </c>
       <c r="L159">
-        <v>9.275995254516602</v>
+        <v>86.40334800000001</v>
       </c>
       <c r="M159">
-        <v>86.40334800000001</v>
+        <v>0.02632312054694336</v>
       </c>
       <c r="N159">
-        <v>0.02632312054694336</v>
+        <v>2.107714653015137</v>
       </c>
       <c r="O159">
-        <v>2.107714653015137</v>
+        <v>1.914527869224548</v>
       </c>
       <c r="P159">
-        <v>1.914527869224548</v>
+        <v>1.356213045120239</v>
       </c>
       <c r="Q159">
-        <v>1.356213045120239</v>
+        <v>1.821449661254883</v>
       </c>
       <c r="R159">
-        <v>1.821449661254883</v>
-      </c>
-      <c r="S159">
         <v>1.667676734924316</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:18">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -9649,37 +9172,34 @@
         <v>66.95999999999999</v>
       </c>
       <c r="J160">
-        <v>-0.03742472899336671</v>
+        <v>4863.120420861278</v>
       </c>
       <c r="K160">
-        <v>4863.120420861278</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>0</v>
+        <v>22.715636</v>
       </c>
       <c r="M160">
-        <v>22.715636</v>
+        <v>0.883093458832556</v>
       </c>
       <c r="N160">
-        <v>0.883093458832556</v>
+        <v>-1.25049147605896</v>
       </c>
       <c r="O160">
-        <v>-1.25049147605896</v>
+        <v>-1.011875748634338</v>
       </c>
       <c r="P160">
-        <v>-1.011875748634338</v>
+        <v>-2.186027479171753</v>
       </c>
       <c r="Q160">
-        <v>-2.186027479171753</v>
+        <v>-1.051216280460358</v>
       </c>
       <c r="R160">
-        <v>-1.051216280460358</v>
-      </c>
-      <c r="S160">
         <v>-1.32343738079071</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:18">
       <c r="A161" s="1" t="s">
         <v>177</v>
       </c>
@@ -9702,16 +9222,13 @@
         <v>0.03420425997292355</v>
       </c>
       <c r="J161">
-        <v>0.03420425997292355</v>
+        <v>11975.58800545751</v>
       </c>
       <c r="K161">
-        <v>11975.58800545751</v>
-      </c>
-      <c r="L161">
         <v>9.420475006103516</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:18">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -9740,37 +9257,34 @@
         <v>95.61</v>
       </c>
       <c r="J162">
-        <v>0.0383714414708007</v>
+        <v>41621.50690056361</v>
       </c>
       <c r="K162">
-        <v>41621.50690056361</v>
+        <v>0</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>60.472624</v>
       </c>
       <c r="M162">
-        <v>60.472624</v>
+        <v>0.3199948515436098</v>
       </c>
       <c r="N162">
-        <v>0.3199948515436098</v>
+        <v>0.7649972796440124</v>
       </c>
       <c r="O162">
-        <v>0.7649972796440124</v>
+        <v>1.211282730102539</v>
       </c>
       <c r="P162">
-        <v>1.211282730102539</v>
+        <v>0.8668633699417114</v>
       </c>
       <c r="Q162">
-        <v>0.8668633699417114</v>
+        <v>1.067132663726807</v>
       </c>
       <c r="R162">
-        <v>1.067132663726807</v>
-      </c>
-      <c r="S162">
         <v>1.173559951782227</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:18">
       <c r="A163" s="1" t="s">
         <v>179</v>
       </c>
@@ -9793,37 +9307,34 @@
         <v>0.03954796385895441</v>
       </c>
       <c r="J163">
-        <v>0.03954796385895441</v>
+        <v>2628.086609290759</v>
       </c>
       <c r="K163">
-        <v>2628.086609290759</v>
+        <v>7.615596771240234</v>
       </c>
       <c r="L163">
-        <v>7.615596771240234</v>
+        <v>22.143378</v>
       </c>
       <c r="M163">
-        <v>22.143378</v>
+        <v>0.9366055825481177</v>
       </c>
       <c r="N163">
-        <v>0.9366055825481177</v>
+        <v>-1.239299368858337</v>
       </c>
       <c r="O163">
-        <v>-1.239299368858337</v>
+        <v>-0.9277807950973511</v>
       </c>
       <c r="P163">
-        <v>-0.9277807950973511</v>
+        <v>-1.034869360923767</v>
       </c>
       <c r="Q163">
-        <v>-1.034869360923767</v>
+        <v>-1.179978919029236</v>
       </c>
       <c r="R163">
-        <v>-1.179978919029236</v>
-      </c>
-      <c r="S163">
         <v>-1.013685047626495</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:18">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -9852,37 +9363,34 @@
         <v>74.87</v>
       </c>
       <c r="J164">
-        <v>0.03537331325527635</v>
+        <v>13861.05577877185</v>
       </c>
       <c r="K164">
-        <v>13861.05577877185</v>
+        <v>8.401812553405762</v>
       </c>
       <c r="L164">
-        <v>8.401812553405762</v>
+        <v>35.762008</v>
       </c>
       <c r="M164">
-        <v>35.762008</v>
+        <v>0.7047069418307157</v>
       </c>
       <c r="N164">
-        <v>0.7047069418307157</v>
+        <v>-0.3634640455245972</v>
       </c>
       <c r="O164">
-        <v>-0.3634640455245972</v>
+        <v>0.2408493876457214</v>
       </c>
       <c r="P164">
-        <v>0.2408493876457214</v>
+        <v>-1.202204358577728</v>
       </c>
       <c r="Q164">
-        <v>-1.202204358577728</v>
+        <v>-0.1743213802576065</v>
       </c>
       <c r="R164">
-        <v>-0.1743213802576065</v>
-      </c>
-      <c r="S164">
         <v>0.2237383604049683</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:18">
       <c r="A165" s="1" t="s">
         <v>181</v>
       </c>
@@ -9911,37 +9419,34 @@
         <v>42.43</v>
       </c>
       <c r="J165">
-        <v>0.03251490767232752</v>
+        <v>1269.313938389512</v>
       </c>
       <c r="K165">
-        <v>1269.313938389512</v>
+        <v>0</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>27.164276</v>
       </c>
       <c r="M165">
-        <v>27.164276</v>
+        <v>0.7132086751761347</v>
       </c>
       <c r="N165">
-        <v>0.7132086751761347</v>
+        <v>-0.978002381324768</v>
       </c>
       <c r="O165">
-        <v>-0.978002381324768</v>
+        <v>-1.322878694534302</v>
       </c>
       <c r="P165">
-        <v>-1.322878694534302</v>
+        <v>-0.2498484700918198</v>
       </c>
       <c r="Q165">
-        <v>-0.2498484700918198</v>
+        <v>-0.9118225693702697</v>
       </c>
       <c r="R165">
-        <v>-0.9118225693702697</v>
-      </c>
-      <c r="S165">
         <v>-0.8929794788360595</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:18">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -9970,37 +9475,34 @@
         <v>88.51000000000001</v>
       </c>
       <c r="J166">
-        <v>0.05722241285438976</v>
+        <v>29726.86638454752</v>
       </c>
       <c r="K166">
-        <v>29726.86638454752</v>
+        <v>7.04825496673584</v>
       </c>
       <c r="L166">
-        <v>7.04825496673584</v>
+        <v>36.540546</v>
       </c>
       <c r="M166">
-        <v>36.540546</v>
+        <v>0.2084735167001516</v>
       </c>
       <c r="N166">
-        <v>0.2084735167001516</v>
+        <v>-0.2138104900717735</v>
       </c>
       <c r="O166">
-        <v>-0.2138104900717735</v>
+        <v>0.3272336661815644</v>
       </c>
       <c r="P166">
-        <v>0.3272336661815644</v>
+        <v>0.1072170525789261</v>
       </c>
       <c r="Q166">
-        <v>0.1072170525789261</v>
+        <v>-0.1447521731257439</v>
       </c>
       <c r="R166">
-        <v>-0.1447521731257439</v>
-      </c>
-      <c r="S166">
         <v>0.3374365568161011</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:18">
       <c r="A167" s="1" t="s">
         <v>183</v>
       </c>
@@ -10029,37 +9531,34 @@
         <v>76.09</v>
       </c>
       <c r="J167">
-        <v>0.004388334547514861</v>
+        <v>10323.21814180917</v>
       </c>
       <c r="K167">
-        <v>10323.21814180917</v>
+        <v>7.100636959075928</v>
       </c>
       <c r="L167">
-        <v>7.100636959075928</v>
+        <v>40.518598</v>
       </c>
       <c r="M167">
-        <v>40.518598</v>
+        <v>0.3428620058193738</v>
       </c>
       <c r="N167">
-        <v>0.3428620058193738</v>
+        <v>-0.09583953022956848</v>
       </c>
       <c r="O167">
-        <v>-0.09583953022956848</v>
+        <v>0.002692305296659469</v>
       </c>
       <c r="P167">
-        <v>0.002692305296659469</v>
+        <v>-0.578651973605156</v>
       </c>
       <c r="Q167">
-        <v>-0.578651973605156</v>
+        <v>-0.09974829107522964</v>
       </c>
       <c r="R167">
-        <v>-0.09974829107522964</v>
-      </c>
-      <c r="S167">
         <v>-0.2250912234187126</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:18">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -10088,37 +9587,34 @@
         <v>82.14</v>
       </c>
       <c r="J168">
-        <v>0.05257130097489671</v>
+        <v>18029.3301222813</v>
       </c>
       <c r="K168">
-        <v>18029.3301222813</v>
+        <v>7.7349853515625</v>
       </c>
       <c r="L168">
-        <v>7.7349853515625</v>
+        <v>46.013722</v>
       </c>
       <c r="M168">
-        <v>46.013722</v>
+        <v>0.5220211187585202</v>
       </c>
       <c r="N168">
-        <v>0.5220211187585202</v>
+        <v>0.03510538898408413</v>
       </c>
       <c r="O168">
-        <v>0.03510538898408413</v>
+        <v>0.3597182393074035</v>
       </c>
       <c r="P168">
-        <v>0.3597182393074035</v>
+        <v>-1.086356604099274</v>
       </c>
       <c r="Q168">
-        <v>-1.086356604099274</v>
+        <v>0.05876444280147552</v>
       </c>
       <c r="R168">
-        <v>0.05876444280147552</v>
-      </c>
-      <c r="S168">
         <v>0.3835345327854157</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:18">
       <c r="A169" s="1" t="s">
         <v>185</v>
       </c>
@@ -10141,37 +9637,34 @@
         <v>0.09042673593451518</v>
       </c>
       <c r="J169">
-        <v>0.09042673593451518</v>
+        <v>17805.01649011892</v>
       </c>
       <c r="K169">
-        <v>17805.01649011892</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>16.606346</v>
       </c>
       <c r="M169">
-        <v>16.606346</v>
+        <v>0.9243550323203287</v>
       </c>
       <c r="N169">
-        <v>0.9243550323203287</v>
+        <v>-1.44577419757843</v>
       </c>
       <c r="O169">
-        <v>-1.44577419757843</v>
+        <v>-1.30971554517746</v>
       </c>
       <c r="P169">
-        <v>-1.30971554517746</v>
+        <v>0.2639248207211494</v>
       </c>
       <c r="Q169">
-        <v>0.2639248207211494</v>
+        <v>-1.419612216949463</v>
       </c>
       <c r="R169">
-        <v>-1.419612216949463</v>
-      </c>
-      <c r="S169">
         <v>-2.053878498077393</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:18">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -10194,13 +9687,10 @@
         <v>-0.002998709851772485</v>
       </c>
       <c r="J170">
-        <v>-0.002998709851772485</v>
-      </c>
-      <c r="K170">
         <v>20880.82502286133</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:18">
       <c r="A171" s="1" t="s">
         <v>187</v>
       </c>
@@ -10223,16 +9713,13 @@
         <v>0.04465648139354572</v>
       </c>
       <c r="J171">
-        <v>0.04465648139354572</v>
+        <v>2070.325343742154</v>
       </c>
       <c r="K171">
-        <v>2070.325343742154</v>
-      </c>
-      <c r="L171">
         <v>1.658919215202332</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:18">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -10261,37 +9748,34 @@
         <v>87</v>
       </c>
       <c r="J172">
-        <v>0.01376382015753985</v>
+        <v>50773.26807444192</v>
       </c>
       <c r="K172">
-        <v>50773.26807444192</v>
+        <v>9.351873397827148</v>
       </c>
       <c r="L172">
-        <v>9.351873397827148</v>
+        <v>72.471366</v>
       </c>
       <c r="M172">
-        <v>72.471366</v>
+        <v>0.07525384050288472</v>
       </c>
       <c r="N172">
-        <v>0.07525384050288472</v>
+        <v>1.328126120567322</v>
       </c>
       <c r="O172">
-        <v>1.328126120567322</v>
+        <v>1.519548320770264</v>
       </c>
       <c r="P172">
-        <v>1.519548320770264</v>
+        <v>0.5775171101093293</v>
       </c>
       <c r="Q172">
-        <v>0.5775171101093293</v>
+        <v>1.606628012657165</v>
       </c>
       <c r="R172">
-        <v>1.606628012657165</v>
-      </c>
-      <c r="S172">
         <v>1.351483058929443</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:18">
       <c r="A173" s="1" t="s">
         <v>189</v>
       </c>
@@ -10320,37 +9804,34 @@
         <v>27.35</v>
       </c>
       <c r="J173">
-        <v>0.02610507319189601</v>
+        <v>1777.299085945269</v>
       </c>
       <c r="K173">
-        <v>1777.299085945269</v>
+        <v>6.75208044052124</v>
       </c>
       <c r="L173">
-        <v>6.75208044052124</v>
+        <v>26.067794</v>
       </c>
       <c r="M173">
-        <v>26.067794</v>
+        <v>0.7208165468437761</v>
       </c>
       <c r="N173">
-        <v>0.7208165468437761</v>
+        <v>-0.9908516049385071</v>
       </c>
       <c r="O173">
-        <v>-0.9908516049385071</v>
+        <v>-0.5396147251129151</v>
       </c>
       <c r="P173">
-        <v>-0.5396147251129151</v>
+        <v>-0.9250886797904968</v>
       </c>
       <c r="Q173">
-        <v>-0.9250886797904968</v>
+        <v>-0.3672928214073181</v>
       </c>
       <c r="R173">
-        <v>-0.3672928214073181</v>
-      </c>
-      <c r="S173">
         <v>-0.2054893761873245</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:18">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -10373,37 +9854,34 @@
         <v>0.04362230929665391</v>
       </c>
       <c r="J174">
-        <v>0.04362230929665391</v>
+        <v>10136.850836997</v>
       </c>
       <c r="K174">
-        <v>10136.850836997</v>
+        <v>9.077883720397949</v>
       </c>
       <c r="L174">
-        <v>9.077883720397949</v>
+        <v>24.79375</v>
       </c>
       <c r="M174">
-        <v>24.79375</v>
+        <v>0.8406068169347396</v>
       </c>
       <c r="N174">
-        <v>0.8406068169347396</v>
+        <v>-1.056027543544769</v>
       </c>
       <c r="O174">
-        <v>-1.056027543544769</v>
+        <v>-0.6502136945724487</v>
       </c>
       <c r="P174">
-        <v>-0.6502136945724487</v>
+        <v>-0.58953862413764</v>
       </c>
       <c r="Q174">
-        <v>-0.58953862413764</v>
+        <v>-0.8009559154510498</v>
       </c>
       <c r="R174">
-        <v>-0.8009559154510498</v>
-      </c>
-      <c r="S174">
         <v>-0.5934416055679321</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:18">
       <c r="A175" s="1" t="s">
         <v>191</v>
       </c>
@@ -10426,34 +9904,31 @@
         <v>0.01714670472680397</v>
       </c>
       <c r="J175">
-        <v>0.01714670472680397</v>
+        <v>62620.2859452768</v>
       </c>
       <c r="K175">
-        <v>62620.2859452768</v>
+        <v>0</v>
       </c>
       <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="M175">
         <v>67.645776</v>
       </c>
+      <c r="N175">
+        <v>1.12434469461441</v>
+      </c>
       <c r="O175">
-        <v>1.12434469461441</v>
+        <v>1.142944717407226</v>
       </c>
       <c r="P175">
-        <v>1.142944717407226</v>
+        <v>0.8481772303581238</v>
       </c>
       <c r="Q175">
-        <v>0.8481772303581238</v>
+        <v>0.5277112782001495</v>
       </c>
       <c r="R175">
-        <v>0.5277112782001495</v>
-      </c>
-      <c r="S175">
         <v>0.6437008500099182</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:18">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -10482,37 +9957,34 @@
         <v>99</v>
       </c>
       <c r="J176">
-        <v>0.01530139450593411</v>
+        <v>37980.33980885002</v>
       </c>
       <c r="K176">
-        <v>37980.33980885002</v>
+        <v>9.294214248657227</v>
       </c>
       <c r="L176">
-        <v>9.294214248657227</v>
+        <v>76.350168</v>
       </c>
       <c r="M176">
-        <v>76.350168</v>
+        <v>0.0593114488902835</v>
       </c>
       <c r="N176">
-        <v>0.0593114488902835</v>
+        <v>1.666536688804626</v>
       </c>
       <c r="O176">
-        <v>1.666536688804626</v>
+        <v>1.55940055847168</v>
       </c>
       <c r="P176">
-        <v>1.55940055847168</v>
+        <v>0.413469123840332</v>
       </c>
       <c r="Q176">
-        <v>0.413469123840332</v>
+        <v>1.745615673065186</v>
       </c>
       <c r="R176">
-        <v>1.745615673065186</v>
-      </c>
-      <c r="S176">
         <v>1.726001238822937</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:18">
       <c r="A177" s="1" t="s">
         <v>193</v>
       </c>
@@ -10541,37 +10013,34 @@
         <v>77.09999999999999</v>
       </c>
       <c r="J177">
-        <v>0.07120252666156648</v>
+        <v>18662.37944096298</v>
       </c>
       <c r="K177">
-        <v>18662.37944096298</v>
+        <v>6.363477230072021</v>
       </c>
       <c r="L177">
-        <v>6.363477230072021</v>
+        <v>71.48891999999999</v>
       </c>
       <c r="M177">
-        <v>71.48891999999999</v>
+        <v>0.04860775875160674</v>
       </c>
       <c r="N177">
-        <v>0.04860775875160674</v>
+        <v>1.333521604537964</v>
       </c>
       <c r="O177">
-        <v>1.333521604537964</v>
+        <v>0.5106136858463287</v>
       </c>
       <c r="P177">
-        <v>0.5106136858463287</v>
+        <v>0.8575737118721009</v>
       </c>
       <c r="Q177">
-        <v>0.8575737118721009</v>
+        <v>0.6611300587654114</v>
       </c>
       <c r="R177">
-        <v>0.6611300587654114</v>
-      </c>
-      <c r="S177">
         <v>0.4676824510097504</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:18">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -10594,37 +10063,34 @@
         <v>0.06384995040479854</v>
       </c>
       <c r="J178">
-        <v>0.06384995040479854</v>
+        <v>7447.754704379375</v>
       </c>
       <c r="K178">
-        <v>7447.754704379375</v>
+        <v>0</v>
       </c>
       <c r="L178">
-        <v>0</v>
+        <v>16.849126</v>
       </c>
       <c r="M178">
-        <v>16.849126</v>
+        <v>0.8790611275715342</v>
       </c>
       <c r="N178">
-        <v>0.8790611275715342</v>
+        <v>-1.28356568813324</v>
       </c>
       <c r="O178">
-        <v>-1.28356568813324</v>
+        <v>-0.77029367685318</v>
       </c>
       <c r="P178">
-        <v>-0.77029367685318</v>
+        <v>-0.5296168863773346</v>
       </c>
       <c r="Q178">
-        <v>-0.5296168863773346</v>
+        <v>-1.301667833328247</v>
       </c>
       <c r="R178">
-        <v>-1.301667833328247</v>
-      </c>
-      <c r="S178">
         <v>-1.600976419448852</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:18">
       <c r="A179" s="1" t="s">
         <v>195</v>
       </c>
@@ -10653,37 +10119,34 @@
         <v>77.70999999999999</v>
       </c>
       <c r="J179">
-        <v>0.0270358106341285</v>
+        <v>15665.3733678118</v>
       </c>
       <c r="K179">
-        <v>15665.3733678118</v>
+        <v>1</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>19.378994</v>
       </c>
       <c r="M179">
-        <v>19.378994</v>
+        <v>0.8671638590267058</v>
       </c>
       <c r="N179">
-        <v>0.8671638590267058</v>
+        <v>-1.276634359359741</v>
       </c>
       <c r="O179">
-        <v>-1.276634359359741</v>
+        <v>-1.168395614624024</v>
       </c>
       <c r="P179">
-        <v>-1.168395614624024</v>
+        <v>-1.061409986019135</v>
       </c>
       <c r="Q179">
-        <v>-1.061409986019135</v>
+        <v>-1.75145754814148</v>
       </c>
       <c r="R179">
-        <v>-1.75145754814148</v>
-      </c>
-      <c r="S179">
         <v>-1.613757658004761</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:18">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -10706,34 +10169,31 @@
         <v>0.07318981461205096</v>
       </c>
       <c r="J180">
-        <v>0.07318981461205096</v>
+        <v>4833.046855508996</v>
       </c>
       <c r="K180">
-        <v>4833.046855508996</v>
+        <v>7.789167881011963</v>
       </c>
       <c r="L180">
-        <v>7.789167881011963</v>
-      </c>
-      <c r="M180">
         <v>29.728766</v>
       </c>
+      <c r="N180">
+        <v>-0.534670639038086</v>
+      </c>
       <c r="O180">
-        <v>-0.534670639038086</v>
+        <v>-0.2195179060101509</v>
       </c>
       <c r="P180">
-        <v>-0.2195179060101509</v>
+        <v>0.1666169799864292</v>
       </c>
       <c r="Q180">
-        <v>0.1666169799864292</v>
+        <v>-0.5124998331069947</v>
       </c>
       <c r="R180">
-        <v>-0.5124998331069947</v>
-      </c>
-      <c r="S180">
         <v>-0.6225659132003785</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:18">
       <c r="A181" s="1" t="s">
         <v>197</v>
       </c>
@@ -10762,37 +10222,34 @@
         <v>40.79</v>
       </c>
       <c r="J181">
-        <v>-0.009991921380473912</v>
+        <v>3632.233134813854</v>
       </c>
       <c r="K181">
-        <v>3632.233134813854</v>
+        <v>0</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>20.560694</v>
       </c>
       <c r="M181">
-        <v>20.560694</v>
+        <v>0.8924053318356389</v>
       </c>
       <c r="N181">
-        <v>0.8924053318356389</v>
+        <v>-1.293146800994873</v>
       </c>
       <c r="O181">
-        <v>-1.293146800994873</v>
+        <v>-1.213837337493896</v>
       </c>
       <c r="P181">
-        <v>-1.213837337493896</v>
+        <v>-2.464315795898437</v>
       </c>
       <c r="Q181">
-        <v>-2.464315795898437</v>
+        <v>-1.203515648841858</v>
       </c>
       <c r="R181">
-        <v>-1.203515648841858</v>
-      </c>
-      <c r="S181">
         <v>-0.7527300119400024</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:18">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -10821,37 +10278,34 @@
         <v>95.42</v>
       </c>
       <c r="J182">
-        <v>0.06413525482100009</v>
+        <v>3471.288436166372</v>
       </c>
       <c r="K182">
-        <v>3471.288436166372</v>
+        <v>6.23131275177002</v>
       </c>
       <c r="L182">
-        <v>6.23131275177002</v>
+        <v>34.99049</v>
       </c>
       <c r="M182">
-        <v>34.99049</v>
+        <v>0.3404410730542747</v>
       </c>
       <c r="N182">
-        <v>0.3404410730542747</v>
+        <v>-0.3671456575393677</v>
       </c>
       <c r="O182">
-        <v>-0.3671456575393677</v>
+        <v>-0.5957200348377227</v>
       </c>
       <c r="P182">
-        <v>-0.5957200348377227</v>
+        <v>0.4556465953588485</v>
       </c>
       <c r="Q182">
-        <v>0.4556465953588485</v>
+        <v>-0.363196724653244</v>
       </c>
       <c r="R182">
-        <v>-0.363196724653244</v>
-      </c>
-      <c r="S182">
         <v>-0.467858350276947</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:18">
       <c r="A183" s="1" t="s">
         <v>199</v>
       </c>
@@ -10880,33 +10334,30 @@
         <v>43.41</v>
       </c>
       <c r="J183">
-        <v>0.04428085657535419</v>
+        <v>1648.272033151722</v>
       </c>
       <c r="K183">
-        <v>1648.272033151722</v>
+        <v>8.085634231567383</v>
       </c>
       <c r="L183">
-        <v>8.085634231567383</v>
+        <v>21.659534</v>
       </c>
       <c r="M183">
-        <v>21.659534</v>
+        <v>0.8239058830355758</v>
       </c>
       <c r="N183">
-        <v>0.8239058830355758</v>
+        <v>-1.386992287635803</v>
       </c>
       <c r="O183">
-        <v>-1.386992287635803</v>
+        <v>-1.341589760780334</v>
       </c>
       <c r="P183">
-        <v>-1.341589760780334</v>
+        <v>-0.8415048837661743</v>
       </c>
       <c r="Q183">
-        <v>-0.8415048837661743</v>
+        <v>-1.648653411865234</v>
       </c>
       <c r="R183">
-        <v>-1.648653411865234</v>
-      </c>
-      <c r="S183">
         <v>-1.928183364868164</v>
       </c>
     </row>
